--- a/jobhuntingsystem/doc/03_機能設計書.xlsx
+++ b/jobhuntingsystem/doc/03_機能設計書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repo\jobHuntingLocal\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repo\jobhuntingsystem\jobhuntingsystem\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF1B116B-74F9-4485-A104-61D720DC2DC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A85A47-41C3-417C-A59B-EA3C2C562A7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="84" yWindow="32760" windowWidth="25524" windowHeight="14004" activeTab="1"/>
+    <workbookView xWindow="84" yWindow="32760" windowWidth="25524" windowHeight="14004" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -23,21 +23,21 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">クラス図!$A$1:$AS$110</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'シーケンス図 (F1-2)'!$A$1:$AN$66</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">システム構成!$A$1:$G$7</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">機能一覧!$A$1:$J$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">機能一覧!$A$1:$J$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$X$61</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">表紙!$1:$2</definedName>
   </definedNames>
-  <calcPr calcId="191029" fullCalcOnLoad="1" concurrentManualCount="2"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>西野　直幸</author>
   </authors>
   <commentList>
-    <comment ref="D9" authorId="0" shapeId="0">
+    <comment ref="D9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -51,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0" shapeId="0">
+    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="193">
   <si>
     <t>更新履歴</t>
     <rPh sb="0" eb="2">
@@ -2036,14 +2036,44 @@
     </rPh>
     <phoneticPr fontId="12"/>
   </si>
+  <si>
+    <t>お知らせ登録</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>画面</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>全体通知、個人通知、グループ通知</t>
+    <rPh sb="0" eb="3">
+      <t>ゼンタイツウチ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>コジンツウチ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ツウチ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="211" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -2410,7 +2440,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2466,13 +2496,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="211" fontId="4" fillId="0" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="211" fontId="4" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2608,6 +2638,9 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2617,14 +2650,68 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="211" fontId="4" fillId="0" borderId="11" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="211" fontId="4" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="211" fontId="4" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2637,12 +2724,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2679,52 +2760,58 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2733,82 +2820,46 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2820,9 +2871,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2851,21 +2899,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="18" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2874,13 +2907,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1"/>
-    <cellStyle name="標準 3" xfId="2"/>
-    <cellStyle name="標準 3 2" xfId="3"/>
-    <cellStyle name="標準 4" xfId="4"/>
-    <cellStyle name="標準_Sheet1" xfId="5"/>
-    <cellStyle name="標準_システム管理" xfId="6"/>
-    <cellStyle name="標準_種別マスタ" xfId="7"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準 3 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="標準_Sheet1" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="標準_システム管理" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="標準_種別マスタ" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3717,7 +3750,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FL61"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="75" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
@@ -3950,14 +3983,14 @@
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
-      <c r="Q3" s="104" t="s">
+      <c r="Q3" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="105"/>
-      <c r="S3" s="99"/>
-      <c r="T3" s="100"/>
-      <c r="U3" s="100"/>
-      <c r="V3" s="101"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="118"/>
+      <c r="T3" s="119"/>
+      <c r="U3" s="119"/>
+      <c r="V3" s="120"/>
       <c r="W3" s="36"/>
       <c r="X3" s="9"/>
       <c r="Y3" s="8"/>
@@ -4052,14 +4085,14 @@
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="25"/>
-      <c r="E7" s="102" t="s">
+      <c r="E7" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -4078,64 +4111,64 @@
     </row>
     <row r="8" spans="1:168" ht="15" customHeight="1">
       <c r="A8" s="7"/>
-      <c r="B8" s="112" t="s">
+      <c r="B8" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="113"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="106" t="s">
+      <c r="C8" s="130"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="123" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="107"/>
-      <c r="N8" s="108"/>
+      <c r="F8" s="124"/>
+      <c r="G8" s="124"/>
+      <c r="H8" s="124"/>
+      <c r="I8" s="124"/>
+      <c r="J8" s="124"/>
+      <c r="K8" s="124"/>
+      <c r="L8" s="124"/>
+      <c r="M8" s="124"/>
+      <c r="N8" s="125"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
-      <c r="Q8" s="104" t="s">
+      <c r="Q8" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="R8" s="105"/>
-      <c r="S8" s="104" t="s">
+      <c r="R8" s="114"/>
+      <c r="S8" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="T8" s="105"/>
-      <c r="U8" s="104" t="s">
+      <c r="T8" s="114"/>
+      <c r="U8" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="V8" s="105"/>
+      <c r="V8" s="114"/>
       <c r="W8" s="36"/>
       <c r="X8" s="32"/>
       <c r="Y8" s="8"/>
     </row>
     <row r="9" spans="1:168" ht="15" customHeight="1">
       <c r="A9" s="7"/>
-      <c r="B9" s="115"/>
-      <c r="C9" s="116"/>
-      <c r="D9" s="117"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="110"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="110"/>
-      <c r="L9" s="110"/>
-      <c r="M9" s="110"/>
-      <c r="N9" s="111"/>
+      <c r="B9" s="132"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="127"/>
+      <c r="H9" s="127"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="127"/>
+      <c r="L9" s="127"/>
+      <c r="M9" s="127"/>
+      <c r="N9" s="128"/>
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
-      <c r="Q9" s="121"/>
-      <c r="R9" s="122"/>
-      <c r="S9" s="121"/>
-      <c r="T9" s="122"/>
-      <c r="U9" s="128"/>
-      <c r="V9" s="129"/>
+      <c r="Q9" s="97"/>
+      <c r="R9" s="98"/>
+      <c r="S9" s="97"/>
+      <c r="T9" s="98"/>
+      <c r="U9" s="104"/>
+      <c r="V9" s="105"/>
       <c r="W9" s="34"/>
       <c r="X9" s="32"/>
       <c r="Y9" s="8"/>
@@ -4157,12 +4190,12 @@
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
-      <c r="Q10" s="123"/>
-      <c r="R10" s="124"/>
-      <c r="S10" s="123"/>
-      <c r="T10" s="124"/>
-      <c r="U10" s="130"/>
-      <c r="V10" s="131"/>
+      <c r="Q10" s="99"/>
+      <c r="R10" s="100"/>
+      <c r="S10" s="99"/>
+      <c r="T10" s="100"/>
+      <c r="U10" s="106"/>
+      <c r="V10" s="107"/>
       <c r="W10" s="34"/>
       <c r="X10" s="32"/>
       <c r="Y10" s="8"/>
@@ -4184,12 +4217,12 @@
       <c r="N11" s="26"/>
       <c r="O11" s="26"/>
       <c r="P11" s="26"/>
-      <c r="Q11" s="125"/>
-      <c r="R11" s="126"/>
-      <c r="S11" s="125"/>
-      <c r="T11" s="126"/>
-      <c r="U11" s="132"/>
-      <c r="V11" s="133"/>
+      <c r="Q11" s="101"/>
+      <c r="R11" s="102"/>
+      <c r="S11" s="101"/>
+      <c r="T11" s="102"/>
+      <c r="U11" s="108"/>
+      <c r="V11" s="109"/>
       <c r="W11" s="34"/>
       <c r="X11" s="32"/>
       <c r="Y11" s="26"/>
@@ -4274,81 +4307,81 @@
     </row>
     <row r="15" spans="1:168" ht="15" customHeight="1">
       <c r="A15" s="7"/>
-      <c r="B15" s="127" t="s">
+      <c r="B15" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="127"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="127"/>
-      <c r="F15" s="127"/>
-      <c r="G15" s="127"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="127"/>
-      <c r="J15" s="127"/>
-      <c r="K15" s="127"/>
-      <c r="L15" s="127"/>
-      <c r="M15" s="127"/>
-      <c r="N15" s="127"/>
-      <c r="O15" s="127"/>
-      <c r="P15" s="127"/>
-      <c r="Q15" s="127"/>
-      <c r="R15" s="127"/>
-      <c r="S15" s="127"/>
-      <c r="T15" s="127"/>
-      <c r="U15" s="127"/>
-      <c r="V15" s="127"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="103"/>
+      <c r="M15" s="103"/>
+      <c r="N15" s="103"/>
+      <c r="O15" s="103"/>
+      <c r="P15" s="103"/>
+      <c r="Q15" s="103"/>
+      <c r="R15" s="103"/>
+      <c r="S15" s="103"/>
+      <c r="T15" s="103"/>
+      <c r="U15" s="103"/>
+      <c r="V15" s="103"/>
       <c r="W15" s="29"/>
       <c r="X15" s="9"/>
     </row>
     <row r="16" spans="1:168" ht="15" customHeight="1">
       <c r="A16" s="7"/>
-      <c r="B16" s="127"/>
-      <c r="C16" s="127"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="127"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="127"/>
-      <c r="J16" s="127"/>
-      <c r="K16" s="127"/>
-      <c r="L16" s="127"/>
-      <c r="M16" s="127"/>
-      <c r="N16" s="127"/>
-      <c r="O16" s="127"/>
-      <c r="P16" s="127"/>
-      <c r="Q16" s="127"/>
-      <c r="R16" s="127"/>
-      <c r="S16" s="127"/>
-      <c r="T16" s="127"/>
-      <c r="U16" s="127"/>
-      <c r="V16" s="127"/>
+      <c r="B16" s="103"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="103"/>
+      <c r="L16" s="103"/>
+      <c r="M16" s="103"/>
+      <c r="N16" s="103"/>
+      <c r="O16" s="103"/>
+      <c r="P16" s="103"/>
+      <c r="Q16" s="103"/>
+      <c r="R16" s="103"/>
+      <c r="S16" s="103"/>
+      <c r="T16" s="103"/>
+      <c r="U16" s="103"/>
+      <c r="V16" s="103"/>
       <c r="W16" s="29"/>
       <c r="X16" s="9"/>
     </row>
     <row r="17" spans="1:24" ht="15" customHeight="1">
       <c r="A17" s="7"/>
-      <c r="B17" s="127"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="127"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="127"/>
-      <c r="J17" s="127"/>
-      <c r="K17" s="127"/>
-      <c r="L17" s="127"/>
-      <c r="M17" s="127"/>
-      <c r="N17" s="127"/>
-      <c r="O17" s="127"/>
-      <c r="P17" s="127"/>
-      <c r="Q17" s="127"/>
-      <c r="R17" s="127"/>
-      <c r="S17" s="127"/>
-      <c r="T17" s="127"/>
-      <c r="U17" s="127"/>
-      <c r="V17" s="127"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="103"/>
+      <c r="J17" s="103"/>
+      <c r="K17" s="103"/>
+      <c r="L17" s="103"/>
+      <c r="M17" s="103"/>
+      <c r="N17" s="103"/>
+      <c r="O17" s="103"/>
+      <c r="P17" s="103"/>
+      <c r="Q17" s="103"/>
+      <c r="R17" s="103"/>
+      <c r="S17" s="103"/>
+      <c r="T17" s="103"/>
+      <c r="U17" s="103"/>
+      <c r="V17" s="103"/>
       <c r="W17" s="29"/>
       <c r="X17" s="9"/>
     </row>
@@ -4902,505 +4935,505 @@
     </row>
     <row r="39" spans="1:24" ht="15" customHeight="1">
       <c r="A39" s="7"/>
-      <c r="B39" s="93" t="s">
+      <c r="B39" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="94"/>
-      <c r="D39" s="95"/>
-      <c r="E39" s="93" t="s">
+      <c r="C39" s="95"/>
+      <c r="D39" s="96"/>
+      <c r="E39" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="F39" s="94"/>
-      <c r="G39" s="95"/>
-      <c r="H39" s="93" t="s">
+      <c r="F39" s="95"/>
+      <c r="G39" s="96"/>
+      <c r="H39" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="I39" s="94"/>
-      <c r="J39" s="94"/>
-      <c r="K39" s="94"/>
-      <c r="L39" s="94"/>
-      <c r="M39" s="94"/>
-      <c r="N39" s="94"/>
-      <c r="O39" s="94"/>
-      <c r="P39" s="94"/>
-      <c r="Q39" s="94"/>
-      <c r="R39" s="94"/>
-      <c r="S39" s="95"/>
-      <c r="T39" s="93" t="s">
+      <c r="I39" s="95"/>
+      <c r="J39" s="95"/>
+      <c r="K39" s="95"/>
+      <c r="L39" s="95"/>
+      <c r="M39" s="95"/>
+      <c r="N39" s="95"/>
+      <c r="O39" s="95"/>
+      <c r="P39" s="95"/>
+      <c r="Q39" s="95"/>
+      <c r="R39" s="95"/>
+      <c r="S39" s="96"/>
+      <c r="T39" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="U39" s="94"/>
-      <c r="V39" s="95"/>
+      <c r="U39" s="95"/>
+      <c r="V39" s="96"/>
       <c r="W39" s="28"/>
       <c r="X39" s="9"/>
     </row>
     <row r="40" spans="1:24" ht="15" customHeight="1">
       <c r="A40" s="7"/>
-      <c r="B40" s="93" t="s">
+      <c r="B40" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="94"/>
-      <c r="D40" s="95"/>
-      <c r="E40" s="96"/>
-      <c r="F40" s="97"/>
-      <c r="G40" s="98"/>
-      <c r="H40" s="118"/>
-      <c r="I40" s="119"/>
-      <c r="J40" s="119"/>
-      <c r="K40" s="119"/>
-      <c r="L40" s="119"/>
-      <c r="M40" s="119"/>
-      <c r="N40" s="119"/>
-      <c r="O40" s="119"/>
-      <c r="P40" s="119"/>
-      <c r="Q40" s="119"/>
-      <c r="R40" s="119"/>
-      <c r="S40" s="120"/>
-      <c r="T40" s="93"/>
-      <c r="U40" s="94"/>
-      <c r="V40" s="95"/>
+      <c r="C40" s="95"/>
+      <c r="D40" s="96"/>
+      <c r="E40" s="110"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="112"/>
+      <c r="H40" s="115"/>
+      <c r="I40" s="116"/>
+      <c r="J40" s="116"/>
+      <c r="K40" s="116"/>
+      <c r="L40" s="116"/>
+      <c r="M40" s="116"/>
+      <c r="N40" s="116"/>
+      <c r="O40" s="116"/>
+      <c r="P40" s="116"/>
+      <c r="Q40" s="116"/>
+      <c r="R40" s="116"/>
+      <c r="S40" s="117"/>
+      <c r="T40" s="94"/>
+      <c r="U40" s="95"/>
+      <c r="V40" s="96"/>
       <c r="W40" s="28"/>
       <c r="X40" s="9"/>
     </row>
     <row r="41" spans="1:24" ht="15" customHeight="1">
       <c r="A41" s="7"/>
-      <c r="B41" s="93"/>
-      <c r="C41" s="94"/>
-      <c r="D41" s="95"/>
-      <c r="E41" s="96"/>
-      <c r="F41" s="97"/>
-      <c r="G41" s="98"/>
-      <c r="H41" s="93"/>
-      <c r="I41" s="94"/>
-      <c r="J41" s="94"/>
-      <c r="K41" s="94"/>
-      <c r="L41" s="94"/>
-      <c r="M41" s="94"/>
-      <c r="N41" s="94"/>
-      <c r="O41" s="94"/>
-      <c r="P41" s="94"/>
-      <c r="Q41" s="94"/>
-      <c r="R41" s="94"/>
-      <c r="S41" s="95"/>
-      <c r="T41" s="93"/>
-      <c r="U41" s="94"/>
-      <c r="V41" s="95"/>
+      <c r="B41" s="94"/>
+      <c r="C41" s="95"/>
+      <c r="D41" s="96"/>
+      <c r="E41" s="110"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="112"/>
+      <c r="H41" s="94"/>
+      <c r="I41" s="95"/>
+      <c r="J41" s="95"/>
+      <c r="K41" s="95"/>
+      <c r="L41" s="95"/>
+      <c r="M41" s="95"/>
+      <c r="N41" s="95"/>
+      <c r="O41" s="95"/>
+      <c r="P41" s="95"/>
+      <c r="Q41" s="95"/>
+      <c r="R41" s="95"/>
+      <c r="S41" s="96"/>
+      <c r="T41" s="94"/>
+      <c r="U41" s="95"/>
+      <c r="V41" s="96"/>
       <c r="W41" s="28"/>
       <c r="X41" s="9"/>
     </row>
     <row r="42" spans="1:24" ht="15" customHeight="1">
       <c r="A42" s="7"/>
-      <c r="B42" s="93"/>
-      <c r="C42" s="94"/>
-      <c r="D42" s="95"/>
-      <c r="E42" s="96"/>
-      <c r="F42" s="97"/>
-      <c r="G42" s="98"/>
-      <c r="H42" s="93"/>
-      <c r="I42" s="94"/>
-      <c r="J42" s="94"/>
-      <c r="K42" s="94"/>
-      <c r="L42" s="94"/>
-      <c r="M42" s="94"/>
-      <c r="N42" s="94"/>
-      <c r="O42" s="94"/>
-      <c r="P42" s="94"/>
-      <c r="Q42" s="94"/>
-      <c r="R42" s="94"/>
-      <c r="S42" s="95"/>
-      <c r="T42" s="93"/>
-      <c r="U42" s="94"/>
-      <c r="V42" s="95"/>
+      <c r="B42" s="94"/>
+      <c r="C42" s="95"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="110"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="112"/>
+      <c r="H42" s="94"/>
+      <c r="I42" s="95"/>
+      <c r="J42" s="95"/>
+      <c r="K42" s="95"/>
+      <c r="L42" s="95"/>
+      <c r="M42" s="95"/>
+      <c r="N42" s="95"/>
+      <c r="O42" s="95"/>
+      <c r="P42" s="95"/>
+      <c r="Q42" s="95"/>
+      <c r="R42" s="95"/>
+      <c r="S42" s="96"/>
+      <c r="T42" s="94"/>
+      <c r="U42" s="95"/>
+      <c r="V42" s="96"/>
       <c r="W42" s="28"/>
       <c r="X42" s="9"/>
     </row>
     <row r="43" spans="1:24" ht="15" customHeight="1">
       <c r="A43" s="7"/>
-      <c r="B43" s="93"/>
-      <c r="C43" s="94"/>
-      <c r="D43" s="95"/>
-      <c r="E43" s="96"/>
-      <c r="F43" s="97"/>
-      <c r="G43" s="98"/>
-      <c r="H43" s="93"/>
-      <c r="I43" s="94"/>
-      <c r="J43" s="94"/>
-      <c r="K43" s="94"/>
-      <c r="L43" s="94"/>
-      <c r="M43" s="94"/>
-      <c r="N43" s="94"/>
-      <c r="O43" s="94"/>
-      <c r="P43" s="94"/>
-      <c r="Q43" s="94"/>
-      <c r="R43" s="94"/>
-      <c r="S43" s="95"/>
-      <c r="T43" s="93"/>
-      <c r="U43" s="94"/>
-      <c r="V43" s="95"/>
+      <c r="B43" s="94"/>
+      <c r="C43" s="95"/>
+      <c r="D43" s="96"/>
+      <c r="E43" s="110"/>
+      <c r="F43" s="111"/>
+      <c r="G43" s="112"/>
+      <c r="H43" s="94"/>
+      <c r="I43" s="95"/>
+      <c r="J43" s="95"/>
+      <c r="K43" s="95"/>
+      <c r="L43" s="95"/>
+      <c r="M43" s="95"/>
+      <c r="N43" s="95"/>
+      <c r="O43" s="95"/>
+      <c r="P43" s="95"/>
+      <c r="Q43" s="95"/>
+      <c r="R43" s="95"/>
+      <c r="S43" s="96"/>
+      <c r="T43" s="94"/>
+      <c r="U43" s="95"/>
+      <c r="V43" s="96"/>
       <c r="W43" s="28"/>
       <c r="X43" s="9"/>
     </row>
     <row r="44" spans="1:24" ht="15" customHeight="1">
       <c r="A44" s="7"/>
-      <c r="B44" s="93"/>
-      <c r="C44" s="94"/>
-      <c r="D44" s="95"/>
-      <c r="E44" s="96"/>
-      <c r="F44" s="97"/>
-      <c r="G44" s="98"/>
-      <c r="H44" s="93"/>
-      <c r="I44" s="94"/>
-      <c r="J44" s="94"/>
-      <c r="K44" s="94"/>
-      <c r="L44" s="94"/>
-      <c r="M44" s="94"/>
-      <c r="N44" s="94"/>
-      <c r="O44" s="94"/>
-      <c r="P44" s="94"/>
-      <c r="Q44" s="94"/>
-      <c r="R44" s="94"/>
-      <c r="S44" s="95"/>
-      <c r="T44" s="93"/>
-      <c r="U44" s="94"/>
-      <c r="V44" s="95"/>
+      <c r="B44" s="94"/>
+      <c r="C44" s="95"/>
+      <c r="D44" s="96"/>
+      <c r="E44" s="110"/>
+      <c r="F44" s="111"/>
+      <c r="G44" s="112"/>
+      <c r="H44" s="94"/>
+      <c r="I44" s="95"/>
+      <c r="J44" s="95"/>
+      <c r="K44" s="95"/>
+      <c r="L44" s="95"/>
+      <c r="M44" s="95"/>
+      <c r="N44" s="95"/>
+      <c r="O44" s="95"/>
+      <c r="P44" s="95"/>
+      <c r="Q44" s="95"/>
+      <c r="R44" s="95"/>
+      <c r="S44" s="96"/>
+      <c r="T44" s="94"/>
+      <c r="U44" s="95"/>
+      <c r="V44" s="96"/>
       <c r="W44" s="28"/>
       <c r="X44" s="9"/>
     </row>
     <row r="45" spans="1:24" ht="15" customHeight="1">
       <c r="A45" s="7"/>
-      <c r="B45" s="93"/>
-      <c r="C45" s="94"/>
-      <c r="D45" s="95"/>
-      <c r="E45" s="96"/>
-      <c r="F45" s="97"/>
-      <c r="G45" s="98"/>
-      <c r="H45" s="93"/>
-      <c r="I45" s="94"/>
-      <c r="J45" s="94"/>
-      <c r="K45" s="94"/>
-      <c r="L45" s="94"/>
-      <c r="M45" s="94"/>
-      <c r="N45" s="94"/>
-      <c r="O45" s="94"/>
-      <c r="P45" s="94"/>
-      <c r="Q45" s="94"/>
-      <c r="R45" s="94"/>
-      <c r="S45" s="95"/>
-      <c r="T45" s="93"/>
-      <c r="U45" s="94"/>
-      <c r="V45" s="95"/>
+      <c r="B45" s="94"/>
+      <c r="C45" s="95"/>
+      <c r="D45" s="96"/>
+      <c r="E45" s="110"/>
+      <c r="F45" s="111"/>
+      <c r="G45" s="112"/>
+      <c r="H45" s="94"/>
+      <c r="I45" s="95"/>
+      <c r="J45" s="95"/>
+      <c r="K45" s="95"/>
+      <c r="L45" s="95"/>
+      <c r="M45" s="95"/>
+      <c r="N45" s="95"/>
+      <c r="O45" s="95"/>
+      <c r="P45" s="95"/>
+      <c r="Q45" s="95"/>
+      <c r="R45" s="95"/>
+      <c r="S45" s="96"/>
+      <c r="T45" s="94"/>
+      <c r="U45" s="95"/>
+      <c r="V45" s="96"/>
       <c r="W45" s="28"/>
       <c r="X45" s="9"/>
     </row>
     <row r="46" spans="1:24" ht="15" customHeight="1">
       <c r="A46" s="7"/>
-      <c r="B46" s="93"/>
-      <c r="C46" s="94"/>
-      <c r="D46" s="95"/>
-      <c r="E46" s="96"/>
-      <c r="F46" s="97"/>
-      <c r="G46" s="98"/>
-      <c r="H46" s="93"/>
-      <c r="I46" s="94"/>
-      <c r="J46" s="94"/>
-      <c r="K46" s="94"/>
-      <c r="L46" s="94"/>
-      <c r="M46" s="94"/>
-      <c r="N46" s="94"/>
-      <c r="O46" s="94"/>
-      <c r="P46" s="94"/>
-      <c r="Q46" s="94"/>
-      <c r="R46" s="94"/>
-      <c r="S46" s="95"/>
-      <c r="T46" s="93"/>
-      <c r="U46" s="94"/>
-      <c r="V46" s="95"/>
+      <c r="B46" s="94"/>
+      <c r="C46" s="95"/>
+      <c r="D46" s="96"/>
+      <c r="E46" s="110"/>
+      <c r="F46" s="111"/>
+      <c r="G46" s="112"/>
+      <c r="H46" s="94"/>
+      <c r="I46" s="95"/>
+      <c r="J46" s="95"/>
+      <c r="K46" s="95"/>
+      <c r="L46" s="95"/>
+      <c r="M46" s="95"/>
+      <c r="N46" s="95"/>
+      <c r="O46" s="95"/>
+      <c r="P46" s="95"/>
+      <c r="Q46" s="95"/>
+      <c r="R46" s="95"/>
+      <c r="S46" s="96"/>
+      <c r="T46" s="94"/>
+      <c r="U46" s="95"/>
+      <c r="V46" s="96"/>
       <c r="W46" s="28"/>
       <c r="X46" s="9"/>
     </row>
     <row r="47" spans="1:24" ht="15" customHeight="1">
       <c r="A47" s="7"/>
-      <c r="B47" s="93"/>
-      <c r="C47" s="94"/>
-      <c r="D47" s="95"/>
-      <c r="E47" s="96"/>
-      <c r="F47" s="97"/>
-      <c r="G47" s="98"/>
-      <c r="H47" s="93"/>
-      <c r="I47" s="94"/>
-      <c r="J47" s="94"/>
-      <c r="K47" s="94"/>
-      <c r="L47" s="94"/>
-      <c r="M47" s="94"/>
-      <c r="N47" s="94"/>
-      <c r="O47" s="94"/>
-      <c r="P47" s="94"/>
-      <c r="Q47" s="94"/>
-      <c r="R47" s="94"/>
-      <c r="S47" s="95"/>
-      <c r="T47" s="93"/>
-      <c r="U47" s="94"/>
-      <c r="V47" s="95"/>
+      <c r="B47" s="94"/>
+      <c r="C47" s="95"/>
+      <c r="D47" s="96"/>
+      <c r="E47" s="110"/>
+      <c r="F47" s="111"/>
+      <c r="G47" s="112"/>
+      <c r="H47" s="94"/>
+      <c r="I47" s="95"/>
+      <c r="J47" s="95"/>
+      <c r="K47" s="95"/>
+      <c r="L47" s="95"/>
+      <c r="M47" s="95"/>
+      <c r="N47" s="95"/>
+      <c r="O47" s="95"/>
+      <c r="P47" s="95"/>
+      <c r="Q47" s="95"/>
+      <c r="R47" s="95"/>
+      <c r="S47" s="96"/>
+      <c r="T47" s="94"/>
+      <c r="U47" s="95"/>
+      <c r="V47" s="96"/>
       <c r="W47" s="28"/>
       <c r="X47" s="9"/>
     </row>
     <row r="48" spans="1:24" ht="15" customHeight="1">
       <c r="A48" s="7"/>
-      <c r="B48" s="93"/>
-      <c r="C48" s="94"/>
-      <c r="D48" s="95"/>
-      <c r="E48" s="96"/>
-      <c r="F48" s="97"/>
-      <c r="G48" s="98"/>
-      <c r="H48" s="93"/>
-      <c r="I48" s="94"/>
-      <c r="J48" s="94"/>
-      <c r="K48" s="94"/>
-      <c r="L48" s="94"/>
-      <c r="M48" s="94"/>
-      <c r="N48" s="94"/>
-      <c r="O48" s="94"/>
-      <c r="P48" s="94"/>
-      <c r="Q48" s="94"/>
-      <c r="R48" s="94"/>
-      <c r="S48" s="95"/>
-      <c r="T48" s="93"/>
-      <c r="U48" s="94"/>
-      <c r="V48" s="95"/>
+      <c r="B48" s="94"/>
+      <c r="C48" s="95"/>
+      <c r="D48" s="96"/>
+      <c r="E48" s="110"/>
+      <c r="F48" s="111"/>
+      <c r="G48" s="112"/>
+      <c r="H48" s="94"/>
+      <c r="I48" s="95"/>
+      <c r="J48" s="95"/>
+      <c r="K48" s="95"/>
+      <c r="L48" s="95"/>
+      <c r="M48" s="95"/>
+      <c r="N48" s="95"/>
+      <c r="O48" s="95"/>
+      <c r="P48" s="95"/>
+      <c r="Q48" s="95"/>
+      <c r="R48" s="95"/>
+      <c r="S48" s="96"/>
+      <c r="T48" s="94"/>
+      <c r="U48" s="95"/>
+      <c r="V48" s="96"/>
       <c r="W48" s="28"/>
       <c r="X48" s="9"/>
     </row>
     <row r="49" spans="1:24" ht="15" customHeight="1">
       <c r="A49" s="7"/>
-      <c r="B49" s="93"/>
-      <c r="C49" s="94"/>
-      <c r="D49" s="95"/>
-      <c r="E49" s="96"/>
-      <c r="F49" s="97"/>
-      <c r="G49" s="98"/>
-      <c r="H49" s="93"/>
-      <c r="I49" s="94"/>
-      <c r="J49" s="94"/>
-      <c r="K49" s="94"/>
-      <c r="L49" s="94"/>
-      <c r="M49" s="94"/>
-      <c r="N49" s="94"/>
-      <c r="O49" s="94"/>
-      <c r="P49" s="94"/>
-      <c r="Q49" s="94"/>
-      <c r="R49" s="94"/>
-      <c r="S49" s="95"/>
-      <c r="T49" s="93"/>
-      <c r="U49" s="94"/>
-      <c r="V49" s="95"/>
+      <c r="B49" s="94"/>
+      <c r="C49" s="95"/>
+      <c r="D49" s="96"/>
+      <c r="E49" s="110"/>
+      <c r="F49" s="111"/>
+      <c r="G49" s="112"/>
+      <c r="H49" s="94"/>
+      <c r="I49" s="95"/>
+      <c r="J49" s="95"/>
+      <c r="K49" s="95"/>
+      <c r="L49" s="95"/>
+      <c r="M49" s="95"/>
+      <c r="N49" s="95"/>
+      <c r="O49" s="95"/>
+      <c r="P49" s="95"/>
+      <c r="Q49" s="95"/>
+      <c r="R49" s="95"/>
+      <c r="S49" s="96"/>
+      <c r="T49" s="94"/>
+      <c r="U49" s="95"/>
+      <c r="V49" s="96"/>
       <c r="W49" s="28"/>
       <c r="X49" s="9"/>
     </row>
     <row r="50" spans="1:24" ht="15" customHeight="1">
       <c r="A50" s="7"/>
-      <c r="B50" s="93"/>
-      <c r="C50" s="94"/>
-      <c r="D50" s="95"/>
-      <c r="E50" s="96"/>
-      <c r="F50" s="97"/>
-      <c r="G50" s="98"/>
-      <c r="H50" s="93"/>
-      <c r="I50" s="94"/>
-      <c r="J50" s="94"/>
-      <c r="K50" s="94"/>
-      <c r="L50" s="94"/>
-      <c r="M50" s="94"/>
-      <c r="N50" s="94"/>
-      <c r="O50" s="94"/>
-      <c r="P50" s="94"/>
-      <c r="Q50" s="94"/>
-      <c r="R50" s="94"/>
-      <c r="S50" s="95"/>
-      <c r="T50" s="93"/>
-      <c r="U50" s="94"/>
-      <c r="V50" s="95"/>
+      <c r="B50" s="94"/>
+      <c r="C50" s="95"/>
+      <c r="D50" s="96"/>
+      <c r="E50" s="110"/>
+      <c r="F50" s="111"/>
+      <c r="G50" s="112"/>
+      <c r="H50" s="94"/>
+      <c r="I50" s="95"/>
+      <c r="J50" s="95"/>
+      <c r="K50" s="95"/>
+      <c r="L50" s="95"/>
+      <c r="M50" s="95"/>
+      <c r="N50" s="95"/>
+      <c r="O50" s="95"/>
+      <c r="P50" s="95"/>
+      <c r="Q50" s="95"/>
+      <c r="R50" s="95"/>
+      <c r="S50" s="96"/>
+      <c r="T50" s="94"/>
+      <c r="U50" s="95"/>
+      <c r="V50" s="96"/>
       <c r="W50" s="28"/>
       <c r="X50" s="9"/>
     </row>
     <row r="51" spans="1:24" ht="15" customHeight="1">
       <c r="A51" s="7"/>
-      <c r="B51" s="93"/>
-      <c r="C51" s="94"/>
-      <c r="D51" s="95"/>
-      <c r="E51" s="96"/>
-      <c r="F51" s="97"/>
-      <c r="G51" s="98"/>
-      <c r="H51" s="93"/>
-      <c r="I51" s="94"/>
-      <c r="J51" s="94"/>
-      <c r="K51" s="94"/>
-      <c r="L51" s="94"/>
-      <c r="M51" s="94"/>
-      <c r="N51" s="94"/>
-      <c r="O51" s="94"/>
-      <c r="P51" s="94"/>
-      <c r="Q51" s="94"/>
-      <c r="R51" s="94"/>
-      <c r="S51" s="95"/>
-      <c r="T51" s="93"/>
-      <c r="U51" s="94"/>
-      <c r="V51" s="95"/>
+      <c r="B51" s="94"/>
+      <c r="C51" s="95"/>
+      <c r="D51" s="96"/>
+      <c r="E51" s="110"/>
+      <c r="F51" s="111"/>
+      <c r="G51" s="112"/>
+      <c r="H51" s="94"/>
+      <c r="I51" s="95"/>
+      <c r="J51" s="95"/>
+      <c r="K51" s="95"/>
+      <c r="L51" s="95"/>
+      <c r="M51" s="95"/>
+      <c r="N51" s="95"/>
+      <c r="O51" s="95"/>
+      <c r="P51" s="95"/>
+      <c r="Q51" s="95"/>
+      <c r="R51" s="95"/>
+      <c r="S51" s="96"/>
+      <c r="T51" s="94"/>
+      <c r="U51" s="95"/>
+      <c r="V51" s="96"/>
       <c r="W51" s="28"/>
       <c r="X51" s="9"/>
     </row>
     <row r="52" spans="1:24" ht="15" customHeight="1">
       <c r="A52" s="7"/>
-      <c r="B52" s="93"/>
-      <c r="C52" s="94"/>
-      <c r="D52" s="95"/>
-      <c r="E52" s="96"/>
-      <c r="F52" s="97"/>
-      <c r="G52" s="98"/>
-      <c r="H52" s="93"/>
-      <c r="I52" s="94"/>
-      <c r="J52" s="94"/>
-      <c r="K52" s="94"/>
-      <c r="L52" s="94"/>
-      <c r="M52" s="94"/>
-      <c r="N52" s="94"/>
-      <c r="O52" s="94"/>
-      <c r="P52" s="94"/>
-      <c r="Q52" s="94"/>
-      <c r="R52" s="94"/>
-      <c r="S52" s="95"/>
-      <c r="T52" s="93"/>
-      <c r="U52" s="94"/>
-      <c r="V52" s="95"/>
+      <c r="B52" s="94"/>
+      <c r="C52" s="95"/>
+      <c r="D52" s="96"/>
+      <c r="E52" s="110"/>
+      <c r="F52" s="111"/>
+      <c r="G52" s="112"/>
+      <c r="H52" s="94"/>
+      <c r="I52" s="95"/>
+      <c r="J52" s="95"/>
+      <c r="K52" s="95"/>
+      <c r="L52" s="95"/>
+      <c r="M52" s="95"/>
+      <c r="N52" s="95"/>
+      <c r="O52" s="95"/>
+      <c r="P52" s="95"/>
+      <c r="Q52" s="95"/>
+      <c r="R52" s="95"/>
+      <c r="S52" s="96"/>
+      <c r="T52" s="94"/>
+      <c r="U52" s="95"/>
+      <c r="V52" s="96"/>
       <c r="W52" s="28"/>
       <c r="X52" s="9"/>
     </row>
     <row r="53" spans="1:24" ht="15" customHeight="1">
       <c r="A53" s="7"/>
-      <c r="B53" s="93"/>
-      <c r="C53" s="94"/>
-      <c r="D53" s="95"/>
-      <c r="E53" s="96"/>
-      <c r="F53" s="97"/>
-      <c r="G53" s="98"/>
-      <c r="H53" s="93"/>
-      <c r="I53" s="94"/>
-      <c r="J53" s="94"/>
-      <c r="K53" s="94"/>
-      <c r="L53" s="94"/>
-      <c r="M53" s="94"/>
-      <c r="N53" s="94"/>
-      <c r="O53" s="94"/>
-      <c r="P53" s="94"/>
-      <c r="Q53" s="94"/>
-      <c r="R53" s="94"/>
-      <c r="S53" s="95"/>
-      <c r="T53" s="93"/>
-      <c r="U53" s="94"/>
-      <c r="V53" s="95"/>
+      <c r="B53" s="94"/>
+      <c r="C53" s="95"/>
+      <c r="D53" s="96"/>
+      <c r="E53" s="110"/>
+      <c r="F53" s="111"/>
+      <c r="G53" s="112"/>
+      <c r="H53" s="94"/>
+      <c r="I53" s="95"/>
+      <c r="J53" s="95"/>
+      <c r="K53" s="95"/>
+      <c r="L53" s="95"/>
+      <c r="M53" s="95"/>
+      <c r="N53" s="95"/>
+      <c r="O53" s="95"/>
+      <c r="P53" s="95"/>
+      <c r="Q53" s="95"/>
+      <c r="R53" s="95"/>
+      <c r="S53" s="96"/>
+      <c r="T53" s="94"/>
+      <c r="U53" s="95"/>
+      <c r="V53" s="96"/>
       <c r="W53" s="28"/>
       <c r="X53" s="9"/>
     </row>
     <row r="54" spans="1:24" ht="15" customHeight="1">
       <c r="A54" s="7"/>
-      <c r="B54" s="93"/>
-      <c r="C54" s="94"/>
-      <c r="D54" s="95"/>
-      <c r="E54" s="96"/>
-      <c r="F54" s="97"/>
-      <c r="G54" s="98"/>
-      <c r="H54" s="93"/>
-      <c r="I54" s="94"/>
-      <c r="J54" s="94"/>
-      <c r="K54" s="94"/>
-      <c r="L54" s="94"/>
-      <c r="M54" s="94"/>
-      <c r="N54" s="94"/>
-      <c r="O54" s="94"/>
-      <c r="P54" s="94"/>
-      <c r="Q54" s="94"/>
-      <c r="R54" s="94"/>
-      <c r="S54" s="95"/>
-      <c r="T54" s="93"/>
-      <c r="U54" s="94"/>
-      <c r="V54" s="95"/>
+      <c r="B54" s="94"/>
+      <c r="C54" s="95"/>
+      <c r="D54" s="96"/>
+      <c r="E54" s="110"/>
+      <c r="F54" s="111"/>
+      <c r="G54" s="112"/>
+      <c r="H54" s="94"/>
+      <c r="I54" s="95"/>
+      <c r="J54" s="95"/>
+      <c r="K54" s="95"/>
+      <c r="L54" s="95"/>
+      <c r="M54" s="95"/>
+      <c r="N54" s="95"/>
+      <c r="O54" s="95"/>
+      <c r="P54" s="95"/>
+      <c r="Q54" s="95"/>
+      <c r="R54" s="95"/>
+      <c r="S54" s="96"/>
+      <c r="T54" s="94"/>
+      <c r="U54" s="95"/>
+      <c r="V54" s="96"/>
       <c r="W54" s="28"/>
       <c r="X54" s="9"/>
     </row>
     <row r="55" spans="1:24" ht="15" customHeight="1">
       <c r="A55" s="7"/>
-      <c r="B55" s="93"/>
-      <c r="C55" s="94"/>
-      <c r="D55" s="95"/>
-      <c r="E55" s="96"/>
-      <c r="F55" s="97"/>
-      <c r="G55" s="98"/>
-      <c r="H55" s="93"/>
-      <c r="I55" s="94"/>
-      <c r="J55" s="94"/>
-      <c r="K55" s="94"/>
-      <c r="L55" s="94"/>
-      <c r="M55" s="94"/>
-      <c r="N55" s="94"/>
-      <c r="O55" s="94"/>
-      <c r="P55" s="94"/>
-      <c r="Q55" s="94"/>
-      <c r="R55" s="94"/>
-      <c r="S55" s="95"/>
-      <c r="T55" s="93"/>
-      <c r="U55" s="94"/>
-      <c r="V55" s="95"/>
+      <c r="B55" s="94"/>
+      <c r="C55" s="95"/>
+      <c r="D55" s="96"/>
+      <c r="E55" s="110"/>
+      <c r="F55" s="111"/>
+      <c r="G55" s="112"/>
+      <c r="H55" s="94"/>
+      <c r="I55" s="95"/>
+      <c r="J55" s="95"/>
+      <c r="K55" s="95"/>
+      <c r="L55" s="95"/>
+      <c r="M55" s="95"/>
+      <c r="N55" s="95"/>
+      <c r="O55" s="95"/>
+      <c r="P55" s="95"/>
+      <c r="Q55" s="95"/>
+      <c r="R55" s="95"/>
+      <c r="S55" s="96"/>
+      <c r="T55" s="94"/>
+      <c r="U55" s="95"/>
+      <c r="V55" s="96"/>
       <c r="W55" s="28"/>
       <c r="X55" s="9"/>
     </row>
     <row r="56" spans="1:24" ht="15" customHeight="1">
       <c r="A56" s="7"/>
-      <c r="B56" s="93"/>
-      <c r="C56" s="94"/>
-      <c r="D56" s="95"/>
-      <c r="E56" s="96"/>
-      <c r="F56" s="97"/>
-      <c r="G56" s="98"/>
-      <c r="H56" s="93"/>
-      <c r="I56" s="94"/>
-      <c r="J56" s="94"/>
-      <c r="K56" s="94"/>
-      <c r="L56" s="94"/>
-      <c r="M56" s="94"/>
-      <c r="N56" s="94"/>
-      <c r="O56" s="94"/>
-      <c r="P56" s="94"/>
-      <c r="Q56" s="94"/>
-      <c r="R56" s="94"/>
-      <c r="S56" s="95"/>
-      <c r="T56" s="93"/>
-      <c r="U56" s="94"/>
-      <c r="V56" s="95"/>
+      <c r="B56" s="94"/>
+      <c r="C56" s="95"/>
+      <c r="D56" s="96"/>
+      <c r="E56" s="110"/>
+      <c r="F56" s="111"/>
+      <c r="G56" s="112"/>
+      <c r="H56" s="94"/>
+      <c r="I56" s="95"/>
+      <c r="J56" s="95"/>
+      <c r="K56" s="95"/>
+      <c r="L56" s="95"/>
+      <c r="M56" s="95"/>
+      <c r="N56" s="95"/>
+      <c r="O56" s="95"/>
+      <c r="P56" s="95"/>
+      <c r="Q56" s="95"/>
+      <c r="R56" s="95"/>
+      <c r="S56" s="96"/>
+      <c r="T56" s="94"/>
+      <c r="U56" s="95"/>
+      <c r="V56" s="96"/>
       <c r="W56" s="28"/>
       <c r="X56" s="9"/>
     </row>
     <row r="57" spans="1:24" ht="15" customHeight="1">
       <c r="A57" s="7"/>
-      <c r="B57" s="93"/>
-      <c r="C57" s="94"/>
-      <c r="D57" s="95"/>
-      <c r="E57" s="96"/>
-      <c r="F57" s="97"/>
-      <c r="G57" s="98"/>
-      <c r="H57" s="93"/>
-      <c r="I57" s="94"/>
-      <c r="J57" s="94"/>
-      <c r="K57" s="94"/>
-      <c r="L57" s="94"/>
-      <c r="M57" s="94"/>
-      <c r="N57" s="94"/>
-      <c r="O57" s="94"/>
-      <c r="P57" s="94"/>
-      <c r="Q57" s="94"/>
-      <c r="R57" s="94"/>
-      <c r="S57" s="95"/>
-      <c r="T57" s="93"/>
-      <c r="U57" s="94"/>
-      <c r="V57" s="95"/>
+      <c r="B57" s="94"/>
+      <c r="C57" s="95"/>
+      <c r="D57" s="96"/>
+      <c r="E57" s="110"/>
+      <c r="F57" s="111"/>
+      <c r="G57" s="112"/>
+      <c r="H57" s="94"/>
+      <c r="I57" s="95"/>
+      <c r="J57" s="95"/>
+      <c r="K57" s="95"/>
+      <c r="L57" s="95"/>
+      <c r="M57" s="95"/>
+      <c r="N57" s="95"/>
+      <c r="O57" s="95"/>
+      <c r="P57" s="95"/>
+      <c r="Q57" s="95"/>
+      <c r="R57" s="95"/>
+      <c r="S57" s="96"/>
+      <c r="T57" s="94"/>
+      <c r="U57" s="95"/>
+      <c r="V57" s="96"/>
       <c r="W57" s="28"/>
       <c r="X57" s="9"/>
     </row>
@@ -5510,22 +5543,62 @@
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="H43:S43"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="Q9:R11"/>
-    <mergeCell ref="B15:V17"/>
-    <mergeCell ref="T39:V39"/>
-    <mergeCell ref="T43:V43"/>
-    <mergeCell ref="S9:T11"/>
-    <mergeCell ref="T42:V42"/>
-    <mergeCell ref="H42:S42"/>
-    <mergeCell ref="U9:V11"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="H57:S57"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="H54:S54"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="E8:N9"/>
+    <mergeCell ref="B8:D9"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:S44"/>
+    <mergeCell ref="T44:V44"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="H39:S39"/>
+    <mergeCell ref="H40:S40"/>
+    <mergeCell ref="T40:V40"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="T41:V41"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:S47"/>
+    <mergeCell ref="T47:V47"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:S46"/>
+    <mergeCell ref="T46:V46"/>
+    <mergeCell ref="H45:S45"/>
+    <mergeCell ref="T45:V45"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:S49"/>
+    <mergeCell ref="T49:V49"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:S48"/>
+    <mergeCell ref="T48:V48"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:S50"/>
+    <mergeCell ref="T50:V50"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:S52"/>
+    <mergeCell ref="T52:V52"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="H51:S51"/>
+    <mergeCell ref="T51:V51"/>
     <mergeCell ref="T57:V57"/>
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="H41:S41"/>
@@ -5542,62 +5615,22 @@
     <mergeCell ref="H53:S53"/>
     <mergeCell ref="T53:V53"/>
     <mergeCell ref="B52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:S52"/>
-    <mergeCell ref="T52:V52"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="H51:S51"/>
-    <mergeCell ref="T51:V51"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:S50"/>
-    <mergeCell ref="T50:V50"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:S49"/>
-    <mergeCell ref="T49:V49"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:S48"/>
-    <mergeCell ref="T48:V48"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:S47"/>
-    <mergeCell ref="T47:V47"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:S46"/>
-    <mergeCell ref="T46:V46"/>
-    <mergeCell ref="H45:S45"/>
-    <mergeCell ref="T45:V45"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:S44"/>
-    <mergeCell ref="T44:V44"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="H39:S39"/>
-    <mergeCell ref="H40:S40"/>
-    <mergeCell ref="T40:V40"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="T41:V41"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="E8:N9"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B8:D9"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="H57:S57"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="H54:S54"/>
+    <mergeCell ref="H43:S43"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="Q9:R11"/>
+    <mergeCell ref="B15:V17"/>
+    <mergeCell ref="T39:V39"/>
+    <mergeCell ref="T43:V43"/>
+    <mergeCell ref="S9:T11"/>
+    <mergeCell ref="T42:V42"/>
+    <mergeCell ref="H42:S42"/>
+    <mergeCell ref="U9:V11"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -5608,14 +5641,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J66"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -5644,23 +5677,23 @@
       <c r="F1" s="51"/>
       <c r="G1" s="51"/>
       <c r="H1" s="51"/>
-      <c r="I1" s="159"/>
-      <c r="J1" s="160"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="145"/>
     </row>
     <row r="2" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="155" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="151" t="s">
+      <c r="C2" s="146" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
       <c r="H2" s="70"/>
       <c r="I2" s="42" t="s">
         <v>16</v>
@@ -5670,17 +5703,17 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A3" s="149"/>
+      <c r="A3" s="156"/>
       <c r="B3" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="151" t="s">
+      <c r="C3" s="146" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
       <c r="H3" s="70"/>
       <c r="I3" s="42" t="s">
         <v>19</v>
@@ -5688,17 +5721,17 @@
       <c r="J3" s="82"/>
     </row>
     <row r="4" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A4" s="150"/>
+      <c r="A4" s="157"/>
       <c r="B4" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="151" t="s">
+      <c r="C4" s="146" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="152"/>
-      <c r="E4" s="152"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="152"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="147"/>
       <c r="H4" s="70"/>
       <c r="I4" s="42" t="s">
         <v>21</v>
@@ -5708,19 +5741,19 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A5" s="148" t="s">
+      <c r="A5" s="155" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="151" t="s">
+      <c r="C5" s="146" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="152"/>
-      <c r="E5" s="152"/>
-      <c r="F5" s="152"/>
-      <c r="G5" s="152"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
       <c r="H5" s="70"/>
       <c r="I5" s="42" t="s">
         <v>23</v>
@@ -5728,15 +5761,15 @@
       <c r="J5" s="43"/>
     </row>
     <row r="6" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A6" s="150"/>
+      <c r="A6" s="157"/>
       <c r="B6" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="151"/>
-      <c r="D6" s="152"/>
-      <c r="E6" s="152"/>
-      <c r="F6" s="152"/>
-      <c r="G6" s="152"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
       <c r="H6" s="70"/>
       <c r="I6" s="42" t="s">
         <v>25</v>
@@ -5770,16 +5803,16 @@
       <c r="H9" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="I9" s="161" t="s">
+      <c r="I9" s="148" t="s">
         <v>64</v>
       </c>
-      <c r="J9" s="160"/>
+      <c r="J9" s="145"/>
     </row>
     <row r="10" spans="1:10" ht="39.6" customHeight="1">
-      <c r="A10" s="153" t="s">
+      <c r="A10" s="158" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="147" t="s">
+      <c r="B10" s="161" t="s">
         <v>69</v>
       </c>
       <c r="C10" s="41" t="s">
@@ -5794,12 +5827,12 @@
       </c>
       <c r="G10" s="46"/>
       <c r="H10" s="83"/>
-      <c r="I10" s="156"/>
-      <c r="J10" s="156"/>
+      <c r="I10" s="143"/>
+      <c r="J10" s="143"/>
     </row>
     <row r="11" spans="1:10" ht="39.6" customHeight="1">
-      <c r="A11" s="154"/>
-      <c r="B11" s="147"/>
+      <c r="A11" s="159"/>
+      <c r="B11" s="161"/>
       <c r="C11" s="41" t="s">
         <v>71</v>
       </c>
@@ -5812,12 +5845,12 @@
       </c>
       <c r="G11" s="46"/>
       <c r="H11" s="46"/>
-      <c r="I11" s="136"/>
-      <c r="J11" s="136"/>
+      <c r="I11" s="141"/>
+      <c r="J11" s="141"/>
     </row>
     <row r="12" spans="1:10" ht="39.6" customHeight="1">
-      <c r="A12" s="154"/>
-      <c r="B12" s="146" t="s">
+      <c r="A12" s="159"/>
+      <c r="B12" s="162" t="s">
         <v>73</v>
       </c>
       <c r="C12" s="44" t="s">
@@ -5832,12 +5865,12 @@
       </c>
       <c r="G12" s="44"/>
       <c r="H12" s="83"/>
-      <c r="I12" s="157"/>
-      <c r="J12" s="158"/>
+      <c r="I12" s="151"/>
+      <c r="J12" s="152"/>
     </row>
     <row r="13" spans="1:10" ht="39.6" customHeight="1">
-      <c r="A13" s="154"/>
-      <c r="B13" s="146"/>
+      <c r="A13" s="159"/>
+      <c r="B13" s="162"/>
       <c r="C13" s="44" t="s">
         <v>75</v>
       </c>
@@ -5850,12 +5883,12 @@
       </c>
       <c r="G13" s="44"/>
       <c r="H13" s="83"/>
-      <c r="I13" s="157"/>
-      <c r="J13" s="158"/>
+      <c r="I13" s="151"/>
+      <c r="J13" s="152"/>
     </row>
     <row r="14" spans="1:10" ht="36" customHeight="1">
-      <c r="A14" s="154"/>
-      <c r="B14" s="146"/>
+      <c r="A14" s="159"/>
+      <c r="B14" s="162"/>
       <c r="C14" s="44" t="s">
         <v>99</v>
       </c>
@@ -5868,12 +5901,12 @@
       </c>
       <c r="G14" s="46"/>
       <c r="H14" s="46"/>
-      <c r="I14" s="136"/>
-      <c r="J14" s="136"/>
+      <c r="I14" s="141"/>
+      <c r="J14" s="141"/>
     </row>
     <row r="15" spans="1:10" ht="66">
-      <c r="A15" s="154"/>
-      <c r="B15" s="147" t="s">
+      <c r="A15" s="159"/>
+      <c r="B15" s="161" t="s">
         <v>101</v>
       </c>
       <c r="C15" s="44" t="s">
@@ -5888,12 +5921,12 @@
       </c>
       <c r="G15" s="46"/>
       <c r="H15" s="83"/>
-      <c r="I15" s="134"/>
-      <c r="J15" s="135"/>
+      <c r="I15" s="153"/>
+      <c r="J15" s="154"/>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1">
-      <c r="A16" s="154"/>
-      <c r="B16" s="147"/>
+      <c r="A16" s="159"/>
+      <c r="B16" s="161"/>
       <c r="C16" s="41" t="s">
         <v>104</v>
       </c>
@@ -5906,12 +5939,12 @@
       </c>
       <c r="G16" s="46"/>
       <c r="H16" s="83"/>
-      <c r="I16" s="134"/>
-      <c r="J16" s="135"/>
+      <c r="I16" s="153"/>
+      <c r="J16" s="154"/>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1">
-      <c r="A17" s="154"/>
-      <c r="B17" s="147"/>
+      <c r="A17" s="159"/>
+      <c r="B17" s="161"/>
       <c r="C17" s="41" t="s">
         <v>161</v>
       </c>
@@ -5924,12 +5957,12 @@
       </c>
       <c r="G17" s="46"/>
       <c r="H17" s="83"/>
-      <c r="I17" s="134"/>
-      <c r="J17" s="135"/>
+      <c r="I17" s="153"/>
+      <c r="J17" s="154"/>
     </row>
     <row r="18" spans="1:10" ht="37.5" customHeight="1">
-      <c r="A18" s="154"/>
-      <c r="B18" s="147"/>
+      <c r="A18" s="159"/>
+      <c r="B18" s="161"/>
       <c r="C18" s="41" t="s">
         <v>106</v>
       </c>
@@ -5942,12 +5975,12 @@
       </c>
       <c r="G18" s="46"/>
       <c r="H18" s="87"/>
-      <c r="I18" s="138"/>
-      <c r="J18" s="139"/>
+      <c r="I18" s="149"/>
+      <c r="J18" s="150"/>
     </row>
     <row r="19" spans="1:10" ht="51.75" customHeight="1">
-      <c r="A19" s="154"/>
-      <c r="B19" s="147"/>
+      <c r="A19" s="159"/>
+      <c r="B19" s="161"/>
       <c r="C19" s="44" t="s">
         <v>108</v>
       </c>
@@ -5960,12 +5993,12 @@
       </c>
       <c r="G19" s="46"/>
       <c r="H19" s="46"/>
-      <c r="I19" s="136"/>
-      <c r="J19" s="136"/>
+      <c r="I19" s="141"/>
+      <c r="J19" s="141"/>
     </row>
     <row r="20" spans="1:10" ht="58.5" customHeight="1">
-      <c r="A20" s="154"/>
-      <c r="B20" s="147"/>
+      <c r="A20" s="159"/>
+      <c r="B20" s="161"/>
       <c r="C20" s="44" t="s">
         <v>110</v>
       </c>
@@ -5978,12 +6011,12 @@
       </c>
       <c r="G20" s="46"/>
       <c r="H20" s="46"/>
-      <c r="I20" s="138"/>
-      <c r="J20" s="139"/>
+      <c r="I20" s="149"/>
+      <c r="J20" s="150"/>
     </row>
     <row r="21" spans="1:10" ht="35.549999999999997" customHeight="1">
-      <c r="A21" s="154"/>
-      <c r="B21" s="147"/>
+      <c r="A21" s="159"/>
+      <c r="B21" s="161"/>
       <c r="C21" s="44" t="s">
         <v>111</v>
       </c>
@@ -5996,12 +6029,12 @@
       </c>
       <c r="G21" s="46"/>
       <c r="H21" s="46"/>
-      <c r="I21" s="138"/>
-      <c r="J21" s="139"/>
+      <c r="I21" s="149"/>
+      <c r="J21" s="150"/>
     </row>
     <row r="22" spans="1:10" ht="35.549999999999997" customHeight="1">
-      <c r="A22" s="154"/>
-      <c r="B22" s="147"/>
+      <c r="A22" s="159"/>
+      <c r="B22" s="161"/>
       <c r="C22" s="44" t="s">
         <v>150</v>
       </c>
@@ -6014,12 +6047,12 @@
       </c>
       <c r="G22" s="46"/>
       <c r="H22" s="46"/>
-      <c r="I22" s="138"/>
-      <c r="J22" s="139"/>
+      <c r="I22" s="149"/>
+      <c r="J22" s="150"/>
     </row>
     <row r="23" spans="1:10" ht="35.549999999999997" customHeight="1">
-      <c r="A23" s="154"/>
-      <c r="B23" s="147"/>
+      <c r="A23" s="159"/>
+      <c r="B23" s="161"/>
       <c r="C23" s="44" t="s">
         <v>113</v>
       </c>
@@ -6036,8 +6069,8 @@
       <c r="J23" s="91"/>
     </row>
     <row r="24" spans="1:10" ht="23.25" customHeight="1">
-      <c r="A24" s="154"/>
-      <c r="B24" s="147"/>
+      <c r="A24" s="159"/>
+      <c r="B24" s="161"/>
       <c r="C24" s="44" t="s">
         <v>115</v>
       </c>
@@ -6050,12 +6083,12 @@
       </c>
       <c r="G24" s="46"/>
       <c r="H24" s="46"/>
-      <c r="I24" s="137"/>
-      <c r="J24" s="137"/>
+      <c r="I24" s="142"/>
+      <c r="J24" s="142"/>
     </row>
     <row r="25" spans="1:10" ht="47.25" customHeight="1">
-      <c r="A25" s="154"/>
-      <c r="B25" s="140" t="s">
+      <c r="A25" s="159"/>
+      <c r="B25" s="138" t="s">
         <v>117</v>
       </c>
       <c r="C25" s="44" t="s">
@@ -6070,389 +6103,387 @@
       </c>
       <c r="G25" s="46"/>
       <c r="H25" s="46"/>
-      <c r="I25" s="137"/>
-      <c r="J25" s="137"/>
+      <c r="I25" s="142"/>
+      <c r="J25" s="142"/>
     </row>
     <row r="26" spans="1:10" ht="47.25" customHeight="1">
-      <c r="A26" s="154"/>
-      <c r="B26" s="141"/>
+      <c r="A26" s="159"/>
+      <c r="B26" s="140"/>
       <c r="C26" s="44" t="s">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>72</v>
+        <v>191</v>
       </c>
       <c r="E26" s="45"/>
       <c r="F26" s="86" t="s">
-        <v>152</v>
+        <v>192</v>
       </c>
       <c r="G26" s="46"/>
       <c r="H26" s="46"/>
-      <c r="I26" s="137"/>
-      <c r="J26" s="137"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="93"/>
     </row>
     <row r="27" spans="1:10" ht="47.25" customHeight="1">
-      <c r="A27" s="155"/>
-      <c r="B27" s="89" t="s">
-        <v>122</v>
-      </c>
+      <c r="A27" s="159"/>
+      <c r="B27" s="139"/>
       <c r="C27" s="44" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D27" s="41" t="s">
         <v>72</v>
       </c>
       <c r="E27" s="45"/>
       <c r="F27" s="86" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="G27" s="46"/>
       <c r="H27" s="46"/>
-      <c r="I27" s="137"/>
-      <c r="J27" s="137"/>
-    </row>
-    <row r="28" spans="1:10" ht="23.25" customHeight="1">
-      <c r="A28" s="142" t="s">
-        <v>124</v>
-      </c>
-      <c r="B28" s="147" t="s">
-        <v>69</v>
+      <c r="I27" s="142"/>
+      <c r="J27" s="142"/>
+    </row>
+    <row r="28" spans="1:10" ht="47.25" customHeight="1">
+      <c r="A28" s="160"/>
+      <c r="B28" s="89" t="s">
+        <v>122</v>
       </c>
       <c r="C28" s="44" t="s">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="D28" s="41" t="s">
         <v>72</v>
       </c>
       <c r="E28" s="45"/>
-      <c r="F28" s="45" t="s">
-        <v>168</v>
+      <c r="F28" s="86" t="s">
+        <v>159</v>
       </c>
       <c r="G28" s="46"/>
       <c r="H28" s="46"/>
-      <c r="I28" s="137"/>
-      <c r="J28" s="137"/>
-    </row>
-    <row r="29" spans="1:10" ht="36" customHeight="1">
-      <c r="A29" s="143"/>
-      <c r="B29" s="147"/>
+      <c r="I28" s="142"/>
+      <c r="J28" s="142"/>
+    </row>
+    <row r="29" spans="1:10" ht="23.25" customHeight="1">
+      <c r="A29" s="135" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29" s="161" t="s">
+        <v>69</v>
+      </c>
       <c r="C29" s="44" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D29" s="41" t="s">
         <v>72</v>
       </c>
       <c r="E29" s="45"/>
-      <c r="F29" s="46"/>
+      <c r="F29" s="45" t="s">
+        <v>168</v>
+      </c>
       <c r="G29" s="46"/>
       <c r="H29" s="46"/>
-      <c r="I29" s="136"/>
-      <c r="J29" s="136"/>
-    </row>
-    <row r="30" spans="1:10" ht="23.25" customHeight="1">
-      <c r="A30" s="143"/>
-      <c r="B30" s="147" t="s">
-        <v>73</v>
-      </c>
+      <c r="I29" s="142"/>
+      <c r="J29" s="142"/>
+    </row>
+    <row r="30" spans="1:10" ht="36" customHeight="1">
+      <c r="A30" s="136"/>
+      <c r="B30" s="161"/>
       <c r="C30" s="44" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D30" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="E30" s="47"/>
+      <c r="E30" s="45"/>
       <c r="F30" s="46"/>
       <c r="G30" s="46"/>
-      <c r="H30" s="83"/>
-      <c r="I30" s="156"/>
-      <c r="J30" s="156"/>
-    </row>
-    <row r="31" spans="1:10" ht="35.1" customHeight="1">
-      <c r="A31" s="143"/>
-      <c r="B31" s="147"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="141"/>
+      <c r="J30" s="141"/>
+    </row>
+    <row r="31" spans="1:10" ht="23.25" customHeight="1">
+      <c r="A31" s="136"/>
+      <c r="B31" s="161" t="s">
+        <v>73</v>
+      </c>
       <c r="C31" s="44" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="D31" s="41" t="s">
         <v>72</v>
       </c>
       <c r="E31" s="47"/>
-      <c r="F31" s="46" t="s">
-        <v>126</v>
-      </c>
+      <c r="F31" s="46"/>
       <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="136"/>
-      <c r="J31" s="136"/>
+      <c r="H31" s="83"/>
+      <c r="I31" s="143"/>
+      <c r="J31" s="143"/>
     </row>
     <row r="32" spans="1:10" ht="35.1" customHeight="1">
-      <c r="A32" s="143"/>
-      <c r="B32" s="147"/>
+      <c r="A32" s="136"/>
+      <c r="B32" s="161"/>
       <c r="C32" s="44" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D32" s="41" t="s">
         <v>72</v>
       </c>
       <c r="E32" s="47"/>
       <c r="F32" s="46" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G32" s="46"/>
       <c r="H32" s="46"/>
-      <c r="I32" s="136"/>
-      <c r="J32" s="136"/>
-    </row>
-    <row r="33" spans="1:10" ht="33.6" customHeight="1">
-      <c r="A33" s="143"/>
-      <c r="B33" s="147"/>
-      <c r="C33" s="41" t="s">
-        <v>77</v>
+      <c r="I32" s="141"/>
+      <c r="J32" s="141"/>
+    </row>
+    <row r="33" spans="1:10" ht="35.1" customHeight="1">
+      <c r="A33" s="136"/>
+      <c r="B33" s="161"/>
+      <c r="C33" s="44" t="s">
+        <v>127</v>
       </c>
       <c r="D33" s="41" t="s">
         <v>72</v>
       </c>
       <c r="E33" s="47"/>
       <c r="F33" s="46" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="G33" s="46"/>
       <c r="H33" s="46"/>
-      <c r="I33" s="136"/>
-      <c r="J33" s="136"/>
+      <c r="I33" s="141"/>
+      <c r="J33" s="141"/>
     </row>
     <row r="34" spans="1:10" ht="33.6" customHeight="1">
-      <c r="A34" s="143"/>
-      <c r="B34" s="147"/>
+      <c r="A34" s="136"/>
+      <c r="B34" s="161"/>
       <c r="C34" s="41" t="s">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="D34" s="41" t="s">
         <v>72</v>
       </c>
       <c r="E34" s="47"/>
       <c r="F34" s="46" t="s">
-        <v>165</v>
+        <v>78</v>
       </c>
       <c r="G34" s="46"/>
       <c r="H34" s="46"/>
-      <c r="I34" s="92"/>
-      <c r="J34" s="92"/>
-    </row>
-    <row r="35" spans="1:10" ht="29.1" customHeight="1">
-      <c r="A35" s="143"/>
-      <c r="B35" s="147"/>
+      <c r="I34" s="141"/>
+      <c r="J34" s="141"/>
+    </row>
+    <row r="35" spans="1:10" ht="33.6" customHeight="1">
+      <c r="A35" s="136"/>
+      <c r="B35" s="161"/>
       <c r="C35" s="41" t="s">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="D35" s="41" t="s">
         <v>72</v>
       </c>
       <c r="E35" s="47"/>
       <c r="F35" s="46" t="s">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="G35" s="46"/>
-      <c r="H35" s="83"/>
-      <c r="I35" s="136"/>
-      <c r="J35" s="136"/>
-    </row>
-    <row r="36" spans="1:10" ht="23.25" customHeight="1">
-      <c r="A36" s="143"/>
-      <c r="B36" s="147" t="s">
-        <v>101</v>
-      </c>
-      <c r="C36" s="44" t="s">
-        <v>129</v>
+      <c r="H35" s="46"/>
+      <c r="I35" s="92"/>
+      <c r="J35" s="92"/>
+    </row>
+    <row r="36" spans="1:10" ht="29.1" customHeight="1">
+      <c r="A36" s="136"/>
+      <c r="B36" s="161"/>
+      <c r="C36" s="41" t="s">
+        <v>79</v>
       </c>
       <c r="D36" s="41" t="s">
         <v>72</v>
       </c>
       <c r="E36" s="47"/>
       <c r="F36" s="46" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="G36" s="46"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="136"/>
-      <c r="J36" s="136"/>
-    </row>
-    <row r="37" spans="1:10" ht="35.549999999999997" customHeight="1">
-      <c r="A37" s="143"/>
-      <c r="B37" s="147"/>
-      <c r="C37" s="41" t="s">
-        <v>131</v>
+      <c r="H36" s="83"/>
+      <c r="I36" s="141"/>
+      <c r="J36" s="141"/>
+    </row>
+    <row r="37" spans="1:10" ht="23.25" customHeight="1">
+      <c r="A37" s="136"/>
+      <c r="B37" s="161" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" s="44" t="s">
+        <v>129</v>
       </c>
       <c r="D37" s="41" t="s">
         <v>72</v>
       </c>
       <c r="E37" s="47"/>
       <c r="F37" s="46" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G37" s="46"/>
       <c r="H37" s="46"/>
-      <c r="I37" s="136"/>
-      <c r="J37" s="136"/>
-    </row>
-    <row r="38" spans="1:10" ht="23.25" customHeight="1">
-      <c r="A38" s="143"/>
-      <c r="B38" s="147"/>
+      <c r="I37" s="141"/>
+      <c r="J37" s="141"/>
+    </row>
+    <row r="38" spans="1:10" ht="35.549999999999997" customHeight="1">
+      <c r="A38" s="136"/>
+      <c r="B38" s="161"/>
       <c r="C38" s="41" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D38" s="41" t="s">
         <v>72</v>
       </c>
       <c r="E38" s="47"/>
       <c r="F38" s="46" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G38" s="46"/>
       <c r="H38" s="46"/>
-      <c r="I38" s="137"/>
-      <c r="J38" s="137"/>
-    </row>
-    <row r="39" spans="1:10" ht="34.5" customHeight="1">
-      <c r="A39" s="143"/>
-      <c r="B39" s="147"/>
-      <c r="C39" s="44" t="s">
-        <v>135</v>
+      <c r="I38" s="141"/>
+      <c r="J38" s="141"/>
+    </row>
+    <row r="39" spans="1:10" ht="23.25" customHeight="1">
+      <c r="A39" s="136"/>
+      <c r="B39" s="161"/>
+      <c r="C39" s="41" t="s">
+        <v>133</v>
       </c>
       <c r="D39" s="41" t="s">
         <v>72</v>
       </c>
       <c r="E39" s="47"/>
       <c r="F39" s="46" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G39" s="46"/>
       <c r="H39" s="46"/>
-      <c r="I39" s="136"/>
-      <c r="J39" s="136"/>
-    </row>
-    <row r="40" spans="1:10" ht="23.25" customHeight="1">
-      <c r="A40" s="143"/>
-      <c r="B40" s="147"/>
+      <c r="I39" s="142"/>
+      <c r="J39" s="142"/>
+    </row>
+    <row r="40" spans="1:10" ht="34.5" customHeight="1">
+      <c r="A40" s="136"/>
+      <c r="B40" s="161"/>
       <c r="C40" s="44" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D40" s="41" t="s">
         <v>72</v>
       </c>
       <c r="E40" s="47"/>
       <c r="F40" s="46" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G40" s="46"/>
-      <c r="H40" s="83"/>
-      <c r="I40" s="137"/>
-      <c r="J40" s="137"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="141"/>
+      <c r="J40" s="141"/>
     </row>
     <row r="41" spans="1:10" ht="23.25" customHeight="1">
-      <c r="A41" s="143"/>
-      <c r="B41" s="147"/>
+      <c r="A41" s="136"/>
+      <c r="B41" s="161"/>
       <c r="C41" s="44" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D41" s="41" t="s">
         <v>72</v>
       </c>
       <c r="E41" s="47"/>
-      <c r="F41" s="47" t="s">
-        <v>140</v>
+      <c r="F41" s="46" t="s">
+        <v>138</v>
       </c>
       <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
-      <c r="I41" s="137"/>
-      <c r="J41" s="137"/>
-    </row>
-    <row r="42" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A42" s="143"/>
-      <c r="B42" s="147"/>
+      <c r="H41" s="83"/>
+      <c r="I41" s="142"/>
+      <c r="J41" s="142"/>
+    </row>
+    <row r="42" spans="1:10" ht="23.25" customHeight="1">
+      <c r="A42" s="136"/>
+      <c r="B42" s="161"/>
       <c r="C42" s="44" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="D42" s="41" t="s">
         <v>72</v>
       </c>
       <c r="E42" s="47"/>
       <c r="F42" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="G42" s="41"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="41"/>
-      <c r="J42" s="41"/>
-    </row>
-    <row r="43" spans="1:10" ht="24" customHeight="1">
-      <c r="A43" s="143"/>
-      <c r="B43" s="147"/>
-      <c r="C43" s="41" t="s">
-        <v>104</v>
+        <v>140</v>
+      </c>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="142"/>
+      <c r="J42" s="142"/>
+    </row>
+    <row r="43" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A43" s="136"/>
+      <c r="B43" s="161"/>
+      <c r="C43" s="44" t="s">
+        <v>102</v>
       </c>
       <c r="D43" s="41" t="s">
         <v>72</v>
       </c>
       <c r="E43" s="47"/>
-      <c r="F43" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="G43" s="46"/>
-      <c r="H43" s="83"/>
-      <c r="I43" s="134"/>
-      <c r="J43" s="135"/>
+      <c r="F43" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="41"/>
     </row>
     <row r="44" spans="1:10" ht="24" customHeight="1">
-      <c r="A44" s="143"/>
-      <c r="B44" s="147"/>
+      <c r="A44" s="136"/>
+      <c r="B44" s="161"/>
       <c r="C44" s="41" t="s">
-        <v>161</v>
+        <v>104</v>
       </c>
       <c r="D44" s="41" t="s">
         <v>72</v>
       </c>
       <c r="E44" s="47"/>
       <c r="F44" s="46" t="s">
-        <v>163</v>
+        <v>105</v>
       </c>
       <c r="G44" s="46"/>
       <c r="H44" s="83"/>
-      <c r="I44" s="134"/>
-      <c r="J44" s="135"/>
-    </row>
-    <row r="45" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A45" s="143"/>
-      <c r="B45" s="147"/>
-      <c r="C45" s="44" t="s">
-        <v>120</v>
+      <c r="I44" s="153"/>
+      <c r="J44" s="154"/>
+    </row>
+    <row r="45" spans="1:10" ht="24" customHeight="1">
+      <c r="A45" s="136"/>
+      <c r="B45" s="161"/>
+      <c r="C45" s="41" t="s">
+        <v>161</v>
       </c>
       <c r="D45" s="41" t="s">
         <v>72</v>
       </c>
       <c r="E45" s="47"/>
-      <c r="F45" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="G45" s="41"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="41"/>
-      <c r="J45" s="41"/>
+      <c r="F45" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="G45" s="46"/>
+      <c r="H45" s="83"/>
+      <c r="I45" s="153"/>
+      <c r="J45" s="154"/>
     </row>
     <row r="46" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A46" s="143"/>
-      <c r="B46" s="140" t="s">
-        <v>181</v>
-      </c>
+      <c r="A46" s="136"/>
+      <c r="B46" s="161"/>
       <c r="C46" s="44" t="s">
-        <v>182</v>
+        <v>120</v>
       </c>
       <c r="D46" s="41" t="s">
         <v>72</v>
       </c>
       <c r="E46" s="47"/>
       <c r="F46" s="47" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="G46" s="41"/>
       <c r="H46" s="41"/>
@@ -6460,17 +6491,19 @@
       <c r="J46" s="41"/>
     </row>
     <row r="47" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A47" s="143"/>
-      <c r="B47" s="145"/>
+      <c r="A47" s="136"/>
+      <c r="B47" s="138" t="s">
+        <v>181</v>
+      </c>
       <c r="C47" s="44" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D47" s="41" t="s">
         <v>72</v>
       </c>
       <c r="E47" s="47"/>
       <c r="F47" s="47" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G47" s="41"/>
       <c r="H47" s="41"/>
@@ -6478,17 +6511,17 @@
       <c r="J47" s="41"/>
     </row>
     <row r="48" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A48" s="143"/>
-      <c r="B48" s="145"/>
+      <c r="A48" s="136"/>
+      <c r="B48" s="140"/>
       <c r="C48" s="44" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D48" s="41" t="s">
         <v>72</v>
       </c>
       <c r="E48" s="47"/>
       <c r="F48" s="47" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G48" s="41"/>
       <c r="H48" s="41"/>
@@ -6496,37 +6529,35 @@
       <c r="J48" s="41"/>
     </row>
     <row r="49" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A49" s="143"/>
-      <c r="B49" s="141"/>
+      <c r="A49" s="136"/>
+      <c r="B49" s="140"/>
       <c r="C49" s="44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D49" s="41" t="s">
         <v>72</v>
       </c>
       <c r="E49" s="47"/>
       <c r="F49" s="47" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G49" s="41"/>
       <c r="H49" s="41"/>
       <c r="I49" s="41"/>
       <c r="J49" s="41"/>
     </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="143"/>
-      <c r="B50" s="140" t="s">
-        <v>81</v>
-      </c>
-      <c r="C50" s="41" t="s">
-        <v>142</v>
+    <row r="50" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A50" s="136"/>
+      <c r="B50" s="139"/>
+      <c r="C50" s="44" t="s">
+        <v>187</v>
       </c>
       <c r="D50" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="E50" s="41"/>
-      <c r="F50" s="46" t="s">
-        <v>143</v>
+        <v>72</v>
+      </c>
+      <c r="E50" s="47"/>
+      <c r="F50" s="47" t="s">
+        <v>188</v>
       </c>
       <c r="G50" s="41"/>
       <c r="H50" s="41"/>
@@ -6534,17 +6565,19 @@
       <c r="J50" s="41"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="143"/>
-      <c r="B51" s="145"/>
+      <c r="A51" s="136"/>
+      <c r="B51" s="138" t="s">
+        <v>81</v>
+      </c>
       <c r="C51" s="41" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D51" s="41" t="s">
         <v>81</v>
       </c>
       <c r="E51" s="41"/>
       <c r="F51" s="46" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="G51" s="41"/>
       <c r="H51" s="41"/>
@@ -6552,17 +6585,17 @@
       <c r="J51" s="41"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="143"/>
-      <c r="B52" s="145"/>
+      <c r="A52" s="136"/>
+      <c r="B52" s="140"/>
       <c r="C52" s="41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D52" s="41" t="s">
         <v>81</v>
       </c>
       <c r="E52" s="41"/>
       <c r="F52" s="46" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G52" s="41"/>
       <c r="H52" s="41"/>
@@ -6570,17 +6603,17 @@
       <c r="J52" s="41"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="143"/>
-      <c r="B53" s="141"/>
+      <c r="A53" s="136"/>
+      <c r="B53" s="140"/>
       <c r="C53" s="41" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D53" s="41" t="s">
         <v>81</v>
       </c>
       <c r="E53" s="41"/>
       <c r="F53" s="46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G53" s="41"/>
       <c r="H53" s="41"/>
@@ -6588,17 +6621,17 @@
       <c r="J53" s="41"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="143"/>
-      <c r="B54" s="85" t="s">
-        <v>82</v>
-      </c>
-      <c r="C54" s="41"/>
+      <c r="A54" s="136"/>
+      <c r="B54" s="139"/>
+      <c r="C54" s="41" t="s">
+        <v>146</v>
+      </c>
       <c r="D54" s="41" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E54" s="41"/>
-      <c r="F54" s="41" t="s">
-        <v>149</v>
+      <c r="F54" s="46" t="s">
+        <v>158</v>
       </c>
       <c r="G54" s="41"/>
       <c r="H54" s="41"/>
@@ -6606,9 +6639,9 @@
       <c r="J54" s="41"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="143"/>
-      <c r="B55" s="88" t="s">
-        <v>83</v>
+      <c r="A55" s="136"/>
+      <c r="B55" s="85" t="s">
+        <v>82</v>
       </c>
       <c r="C55" s="41"/>
       <c r="D55" s="41" t="s">
@@ -6616,7 +6649,7 @@
       </c>
       <c r="E55" s="41"/>
       <c r="F55" s="41" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="G55" s="41"/>
       <c r="H55" s="41"/>
@@ -6624,19 +6657,17 @@
       <c r="J55" s="41"/>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="143"/>
-      <c r="B56" s="140" t="s">
-        <v>84</v>
-      </c>
-      <c r="C56" s="41" t="s">
-        <v>147</v>
-      </c>
+      <c r="A56" s="136"/>
+      <c r="B56" s="88" t="s">
+        <v>83</v>
+      </c>
+      <c r="C56" s="41"/>
       <c r="D56" s="41" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="E56" s="41"/>
       <c r="F56" s="41" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="G56" s="41"/>
       <c r="H56" s="41"/>
@@ -6644,89 +6675,91 @@
       <c r="J56" s="41"/>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="144"/>
-      <c r="B57" s="141"/>
-      <c r="C57" s="41"/>
+      <c r="A57" s="136"/>
+      <c r="B57" s="138" t="s">
+        <v>84</v>
+      </c>
+      <c r="C57" s="41" t="s">
+        <v>147</v>
+      </c>
       <c r="D57" s="41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E57" s="41"/>
-      <c r="F57" s="41"/>
+      <c r="F57" s="41" t="s">
+        <v>148</v>
+      </c>
       <c r="G57" s="41"/>
       <c r="H57" s="41"/>
       <c r="I57" s="41"/>
       <c r="J57" s="41"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="142" t="s">
-        <v>166</v>
-      </c>
-      <c r="B58" s="140" t="s">
-        <v>69</v>
-      </c>
-      <c r="C58" s="44" t="s">
-        <v>69</v>
-      </c>
+      <c r="A58" s="137"/>
+      <c r="B58" s="139"/>
+      <c r="C58" s="41"/>
       <c r="D58" s="41" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="E58" s="41"/>
-      <c r="F58" s="41" t="s">
-        <v>167</v>
-      </c>
+      <c r="F58" s="41"/>
       <c r="G58" s="41"/>
       <c r="H58" s="41"/>
       <c r="I58" s="41"/>
       <c r="J58" s="41"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="143"/>
-      <c r="B59" s="141"/>
+      <c r="A59" s="135" t="s">
+        <v>166</v>
+      </c>
+      <c r="B59" s="138" t="s">
+        <v>69</v>
+      </c>
       <c r="C59" s="44" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D59" s="41" t="s">
         <v>72</v>
       </c>
       <c r="E59" s="41"/>
-      <c r="F59" s="41"/>
+      <c r="F59" s="41" t="s">
+        <v>167</v>
+      </c>
       <c r="G59" s="41"/>
       <c r="H59" s="41"/>
       <c r="I59" s="41"/>
       <c r="J59" s="41"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="143"/>
-      <c r="B60" s="140" t="s">
-        <v>169</v>
-      </c>
-      <c r="C60" s="41" t="s">
-        <v>129</v>
+      <c r="A60" s="136"/>
+      <c r="B60" s="139"/>
+      <c r="C60" s="44" t="s">
+        <v>71</v>
       </c>
       <c r="D60" s="41" t="s">
         <v>72</v>
       </c>
       <c r="E60" s="41"/>
-      <c r="F60" s="41" t="s">
-        <v>172</v>
-      </c>
+      <c r="F60" s="41"/>
       <c r="G60" s="41"/>
       <c r="H60" s="41"/>
       <c r="I60" s="41"/>
       <c r="J60" s="41"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="143"/>
-      <c r="B61" s="145"/>
+      <c r="A61" s="136"/>
+      <c r="B61" s="138" t="s">
+        <v>169</v>
+      </c>
       <c r="C61" s="41" t="s">
-        <v>170</v>
+        <v>129</v>
       </c>
       <c r="D61" s="41" t="s">
         <v>72</v>
       </c>
       <c r="E61" s="41"/>
       <c r="F61" s="41" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G61" s="41"/>
       <c r="H61" s="41"/>
@@ -6734,17 +6767,17 @@
       <c r="J61" s="41"/>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="143"/>
-      <c r="B62" s="145"/>
+      <c r="A62" s="136"/>
+      <c r="B62" s="140"/>
       <c r="C62" s="41" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D62" s="41" t="s">
         <v>72</v>
       </c>
       <c r="E62" s="41"/>
       <c r="F62" s="41" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G62" s="41"/>
       <c r="H62" s="41"/>
@@ -6752,17 +6785,17 @@
       <c r="J62" s="41"/>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="143"/>
-      <c r="B63" s="145"/>
+      <c r="A63" s="136"/>
+      <c r="B63" s="140"/>
       <c r="C63" s="41" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D63" s="41" t="s">
         <v>72</v>
       </c>
       <c r="E63" s="41"/>
       <c r="F63" s="41" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G63" s="41"/>
       <c r="H63" s="41"/>
@@ -6770,17 +6803,17 @@
       <c r="J63" s="41"/>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="143"/>
-      <c r="B64" s="145"/>
+      <c r="A64" s="136"/>
+      <c r="B64" s="140"/>
       <c r="C64" s="41" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D64" s="41" t="s">
         <v>72</v>
       </c>
       <c r="E64" s="41"/>
       <c r="F64" s="41" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G64" s="41"/>
       <c r="H64" s="41"/>
@@ -6788,17 +6821,17 @@
       <c r="J64" s="41"/>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="144"/>
-      <c r="B65" s="141"/>
+      <c r="A65" s="136"/>
+      <c r="B65" s="140"/>
       <c r="C65" s="41" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D65" s="41" t="s">
         <v>72</v>
       </c>
       <c r="E65" s="41"/>
       <c r="F65" s="41" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G65" s="41"/>
       <c r="H65" s="41"/>
@@ -6806,56 +6839,53 @@
       <c r="J65" s="41"/>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="B66" s="41" t="s">
-        <v>94</v>
-      </c>
+      <c r="A66" s="137"/>
+      <c r="B66" s="139"/>
       <c r="C66" s="41" t="s">
-        <v>95</v>
+        <v>179</v>
       </c>
       <c r="D66" s="41" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="E66" s="41"/>
       <c r="F66" s="41" t="s">
-        <v>96</v>
+        <v>180</v>
       </c>
       <c r="G66" s="41"/>
       <c r="H66" s="41"/>
       <c r="I66" s="41"/>
       <c r="J66" s="41"/>
     </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="B67" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="C67" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="D67" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="E67" s="41"/>
+      <c r="F67" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="G67" s="41"/>
+      <c r="H67" s="41"/>
+      <c r="I67" s="41"/>
+      <c r="J67" s="41"/>
+    </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="A58:A65"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B60:B65"/>
-    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I28:J28"/>
     <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I29:J29"/>
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="I18:J18"/>
@@ -6864,27 +6894,48 @@
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A10:A27"/>
+    <mergeCell ref="A10:A28"/>
     <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="A28:A57"/>
-    <mergeCell ref="B50:B53"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B15:B24"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B36:B45"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="B25:B27"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="A59:A66"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B66"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="I40:J40"/>
     <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="A29:A58"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B37:B46"/>
+    <mergeCell ref="I45:J45"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>
@@ -6895,7 +6946,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6925,51 +6976,51 @@
       <c r="C1" s="51"/>
       <c r="D1" s="51"/>
       <c r="E1" s="51"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="160"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="145"/>
     </row>
     <row r="2" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="155" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="151" t="s">
+      <c r="C2" s="146" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
       <c r="F2" s="42" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="68"/>
     </row>
     <row r="3" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A3" s="149"/>
+      <c r="A3" s="156"/>
       <c r="B3" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="151" t="s">
+      <c r="C3" s="146" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
       <c r="F3" s="42" t="s">
         <v>19</v>
       </c>
       <c r="G3" s="82"/>
     </row>
     <row r="4" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A4" s="150"/>
+      <c r="A4" s="157"/>
       <c r="B4" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="151" t="s">
+      <c r="C4" s="146" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="152"/>
-      <c r="E4" s="152"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
       <c r="F4" s="42" t="s">
         <v>21</v>
       </c>
@@ -6978,32 +7029,32 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A5" s="148" t="s">
+      <c r="A5" s="155" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="151" t="s">
+      <c r="C5" s="146" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="152"/>
-      <c r="E5" s="152"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
       <c r="F5" s="42" t="s">
         <v>23</v>
       </c>
       <c r="G5" s="43"/>
     </row>
     <row r="6" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A6" s="150"/>
+      <c r="A6" s="157"/>
       <c r="B6" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="151" t="s">
+      <c r="C6" s="146" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="152"/>
-      <c r="E6" s="152"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
       <c r="F6" s="42" t="s">
         <v>25</v>
       </c>
@@ -7035,7 +7086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7126,333 +7177,333 @@
       <c r="BG1" s="84"/>
     </row>
     <row r="2" spans="1:59" ht="14.1" customHeight="1">
-      <c r="A2" s="177" t="s">
+      <c r="A2" s="164" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="177"/>
-      <c r="C2" s="177"/>
-      <c r="D2" s="178" t="s">
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="165" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
-      <c r="J2" s="176"/>
-      <c r="K2" s="176"/>
-      <c r="L2" s="176"/>
-      <c r="M2" s="176"/>
-      <c r="N2" s="176"/>
-      <c r="O2" s="176"/>
-      <c r="P2" s="176"/>
-      <c r="Q2" s="176"/>
-      <c r="R2" s="176"/>
-      <c r="S2" s="176"/>
-      <c r="T2" s="176"/>
-      <c r="U2" s="176"/>
-      <c r="V2" s="176"/>
-      <c r="W2" s="176"/>
-      <c r="X2" s="176"/>
-      <c r="Y2" s="176"/>
-      <c r="Z2" s="176"/>
-      <c r="AA2" s="176"/>
-      <c r="AB2" s="176"/>
-      <c r="AC2" s="176"/>
-      <c r="AD2" s="176"/>
-      <c r="AE2" s="176"/>
-      <c r="AF2" s="176"/>
-      <c r="AG2" s="176"/>
-      <c r="AH2" s="176"/>
-      <c r="AI2" s="176"/>
-      <c r="AJ2" s="176"/>
-      <c r="AK2" s="176"/>
-      <c r="AL2" s="176"/>
-      <c r="AM2" s="176"/>
-      <c r="AN2" s="176"/>
-      <c r="AO2" s="176"/>
-      <c r="AP2" s="176"/>
-      <c r="AQ2" s="176"/>
-      <c r="AR2" s="176"/>
-      <c r="AS2" s="176"/>
-      <c r="AT2" s="176"/>
-      <c r="AU2" s="176"/>
-      <c r="AV2" s="176"/>
-      <c r="AW2" s="176"/>
-      <c r="AX2" s="176"/>
-      <c r="AY2" s="176"/>
-      <c r="AZ2" s="165" t="s">
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="163"/>
+      <c r="L2" s="163"/>
+      <c r="M2" s="163"/>
+      <c r="N2" s="163"/>
+      <c r="O2" s="163"/>
+      <c r="P2" s="163"/>
+      <c r="Q2" s="163"/>
+      <c r="R2" s="163"/>
+      <c r="S2" s="163"/>
+      <c r="T2" s="163"/>
+      <c r="U2" s="163"/>
+      <c r="V2" s="163"/>
+      <c r="W2" s="163"/>
+      <c r="X2" s="163"/>
+      <c r="Y2" s="163"/>
+      <c r="Z2" s="163"/>
+      <c r="AA2" s="163"/>
+      <c r="AB2" s="163"/>
+      <c r="AC2" s="163"/>
+      <c r="AD2" s="163"/>
+      <c r="AE2" s="163"/>
+      <c r="AF2" s="163"/>
+      <c r="AG2" s="163"/>
+      <c r="AH2" s="163"/>
+      <c r="AI2" s="163"/>
+      <c r="AJ2" s="163"/>
+      <c r="AK2" s="163"/>
+      <c r="AL2" s="163"/>
+      <c r="AM2" s="163"/>
+      <c r="AN2" s="163"/>
+      <c r="AO2" s="163"/>
+      <c r="AP2" s="163"/>
+      <c r="AQ2" s="163"/>
+      <c r="AR2" s="163"/>
+      <c r="AS2" s="163"/>
+      <c r="AT2" s="163"/>
+      <c r="AU2" s="163"/>
+      <c r="AV2" s="163"/>
+      <c r="AW2" s="163"/>
+      <c r="AX2" s="163"/>
+      <c r="AY2" s="163"/>
+      <c r="AZ2" s="168" t="s">
         <v>47</v>
       </c>
-      <c r="BA2" s="165"/>
-      <c r="BB2" s="169"/>
-      <c r="BC2" s="170"/>
-      <c r="BD2" s="171"/>
-      <c r="BE2" s="171"/>
-      <c r="BF2" s="171"/>
-      <c r="BG2" s="172"/>
+      <c r="BA2" s="168"/>
+      <c r="BB2" s="175"/>
+      <c r="BC2" s="176"/>
+      <c r="BD2" s="177"/>
+      <c r="BE2" s="177"/>
+      <c r="BF2" s="177"/>
+      <c r="BG2" s="178"/>
     </row>
     <row r="3" spans="1:59" ht="14.1" customHeight="1">
-      <c r="A3" s="177"/>
-      <c r="B3" s="177"/>
-      <c r="C3" s="177"/>
-      <c r="D3" s="178" t="s">
+      <c r="A3" s="164"/>
+      <c r="B3" s="164"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="165" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="179"/>
-      <c r="F3" s="179"/>
-      <c r="G3" s="180"/>
-      <c r="H3" s="176"/>
-      <c r="I3" s="176"/>
-      <c r="J3" s="176"/>
-      <c r="K3" s="176"/>
-      <c r="L3" s="176"/>
-      <c r="M3" s="176"/>
-      <c r="N3" s="176"/>
-      <c r="O3" s="176"/>
-      <c r="P3" s="176"/>
-      <c r="Q3" s="176"/>
-      <c r="R3" s="176"/>
-      <c r="S3" s="176"/>
-      <c r="T3" s="176"/>
-      <c r="U3" s="176"/>
-      <c r="V3" s="176"/>
-      <c r="W3" s="176"/>
-      <c r="X3" s="176"/>
-      <c r="Y3" s="176"/>
-      <c r="Z3" s="176"/>
-      <c r="AA3" s="176"/>
-      <c r="AB3" s="176"/>
-      <c r="AC3" s="176"/>
-      <c r="AD3" s="176"/>
-      <c r="AE3" s="176"/>
-      <c r="AF3" s="176"/>
-      <c r="AG3" s="176"/>
-      <c r="AH3" s="176"/>
-      <c r="AI3" s="176"/>
-      <c r="AJ3" s="176"/>
-      <c r="AK3" s="176"/>
-      <c r="AL3" s="176"/>
-      <c r="AM3" s="176"/>
-      <c r="AN3" s="176"/>
-      <c r="AO3" s="176"/>
-      <c r="AP3" s="176"/>
-      <c r="AQ3" s="176"/>
-      <c r="AR3" s="176"/>
-      <c r="AS3" s="176"/>
-      <c r="AT3" s="176"/>
-      <c r="AU3" s="176"/>
-      <c r="AV3" s="176"/>
-      <c r="AW3" s="176"/>
-      <c r="AX3" s="176"/>
-      <c r="AY3" s="176"/>
-      <c r="AZ3" s="165" t="s">
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="163"/>
+      <c r="L3" s="163"/>
+      <c r="M3" s="163"/>
+      <c r="N3" s="163"/>
+      <c r="O3" s="163"/>
+      <c r="P3" s="163"/>
+      <c r="Q3" s="163"/>
+      <c r="R3" s="163"/>
+      <c r="S3" s="163"/>
+      <c r="T3" s="163"/>
+      <c r="U3" s="163"/>
+      <c r="V3" s="163"/>
+      <c r="W3" s="163"/>
+      <c r="X3" s="163"/>
+      <c r="Y3" s="163"/>
+      <c r="Z3" s="163"/>
+      <c r="AA3" s="163"/>
+      <c r="AB3" s="163"/>
+      <c r="AC3" s="163"/>
+      <c r="AD3" s="163"/>
+      <c r="AE3" s="163"/>
+      <c r="AF3" s="163"/>
+      <c r="AG3" s="163"/>
+      <c r="AH3" s="163"/>
+      <c r="AI3" s="163"/>
+      <c r="AJ3" s="163"/>
+      <c r="AK3" s="163"/>
+      <c r="AL3" s="163"/>
+      <c r="AM3" s="163"/>
+      <c r="AN3" s="163"/>
+      <c r="AO3" s="163"/>
+      <c r="AP3" s="163"/>
+      <c r="AQ3" s="163"/>
+      <c r="AR3" s="163"/>
+      <c r="AS3" s="163"/>
+      <c r="AT3" s="163"/>
+      <c r="AU3" s="163"/>
+      <c r="AV3" s="163"/>
+      <c r="AW3" s="163"/>
+      <c r="AX3" s="163"/>
+      <c r="AY3" s="163"/>
+      <c r="AZ3" s="168" t="s">
         <v>49</v>
       </c>
-      <c r="BA3" s="165"/>
-      <c r="BB3" s="169"/>
-      <c r="BC3" s="173"/>
-      <c r="BD3" s="174"/>
-      <c r="BE3" s="174"/>
-      <c r="BF3" s="174"/>
-      <c r="BG3" s="175"/>
+      <c r="BA3" s="168"/>
+      <c r="BB3" s="175"/>
+      <c r="BC3" s="179"/>
+      <c r="BD3" s="180"/>
+      <c r="BE3" s="180"/>
+      <c r="BF3" s="180"/>
+      <c r="BG3" s="181"/>
     </row>
     <row r="4" spans="1:59" ht="14.1" customHeight="1">
-      <c r="A4" s="177"/>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="178" t="s">
+      <c r="A4" s="164"/>
+      <c r="B4" s="164"/>
+      <c r="C4" s="164"/>
+      <c r="D4" s="165" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="179"/>
-      <c r="F4" s="179"/>
-      <c r="G4" s="180"/>
-      <c r="H4" s="176"/>
-      <c r="I4" s="176"/>
-      <c r="J4" s="176"/>
-      <c r="K4" s="176"/>
-      <c r="L4" s="176"/>
-      <c r="M4" s="176"/>
-      <c r="N4" s="176"/>
-      <c r="O4" s="176"/>
-      <c r="P4" s="176"/>
-      <c r="Q4" s="176"/>
-      <c r="R4" s="176"/>
-      <c r="S4" s="176"/>
-      <c r="T4" s="176"/>
-      <c r="U4" s="176"/>
-      <c r="V4" s="176"/>
-      <c r="W4" s="176"/>
-      <c r="X4" s="176"/>
-      <c r="Y4" s="176"/>
-      <c r="Z4" s="176"/>
-      <c r="AA4" s="176"/>
-      <c r="AB4" s="176"/>
-      <c r="AC4" s="176"/>
-      <c r="AD4" s="176"/>
-      <c r="AE4" s="176"/>
-      <c r="AF4" s="176"/>
-      <c r="AG4" s="176"/>
-      <c r="AH4" s="176"/>
-      <c r="AI4" s="176"/>
-      <c r="AJ4" s="176"/>
-      <c r="AK4" s="176"/>
-      <c r="AL4" s="176"/>
-      <c r="AM4" s="176"/>
-      <c r="AN4" s="176"/>
-      <c r="AO4" s="176"/>
-      <c r="AP4" s="176"/>
-      <c r="AQ4" s="176"/>
-      <c r="AR4" s="176"/>
-      <c r="AS4" s="176"/>
-      <c r="AT4" s="176"/>
-      <c r="AU4" s="176"/>
-      <c r="AV4" s="176"/>
-      <c r="AW4" s="176"/>
-      <c r="AX4" s="176"/>
-      <c r="AY4" s="176"/>
-      <c r="AZ4" s="165" t="s">
+      <c r="E4" s="166"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="163"/>
+      <c r="I4" s="163"/>
+      <c r="J4" s="163"/>
+      <c r="K4" s="163"/>
+      <c r="L4" s="163"/>
+      <c r="M4" s="163"/>
+      <c r="N4" s="163"/>
+      <c r="O4" s="163"/>
+      <c r="P4" s="163"/>
+      <c r="Q4" s="163"/>
+      <c r="R4" s="163"/>
+      <c r="S4" s="163"/>
+      <c r="T4" s="163"/>
+      <c r="U4" s="163"/>
+      <c r="V4" s="163"/>
+      <c r="W4" s="163"/>
+      <c r="X4" s="163"/>
+      <c r="Y4" s="163"/>
+      <c r="Z4" s="163"/>
+      <c r="AA4" s="163"/>
+      <c r="AB4" s="163"/>
+      <c r="AC4" s="163"/>
+      <c r="AD4" s="163"/>
+      <c r="AE4" s="163"/>
+      <c r="AF4" s="163"/>
+      <c r="AG4" s="163"/>
+      <c r="AH4" s="163"/>
+      <c r="AI4" s="163"/>
+      <c r="AJ4" s="163"/>
+      <c r="AK4" s="163"/>
+      <c r="AL4" s="163"/>
+      <c r="AM4" s="163"/>
+      <c r="AN4" s="163"/>
+      <c r="AO4" s="163"/>
+      <c r="AP4" s="163"/>
+      <c r="AQ4" s="163"/>
+      <c r="AR4" s="163"/>
+      <c r="AS4" s="163"/>
+      <c r="AT4" s="163"/>
+      <c r="AU4" s="163"/>
+      <c r="AV4" s="163"/>
+      <c r="AW4" s="163"/>
+      <c r="AX4" s="163"/>
+      <c r="AY4" s="163"/>
+      <c r="AZ4" s="168" t="s">
         <v>51</v>
       </c>
-      <c r="BA4" s="165"/>
-      <c r="BB4" s="169"/>
-      <c r="BC4" s="170"/>
-      <c r="BD4" s="171"/>
-      <c r="BE4" s="171"/>
-      <c r="BF4" s="171"/>
-      <c r="BG4" s="172"/>
+      <c r="BA4" s="168"/>
+      <c r="BB4" s="175"/>
+      <c r="BC4" s="176"/>
+      <c r="BD4" s="177"/>
+      <c r="BE4" s="177"/>
+      <c r="BF4" s="177"/>
+      <c r="BG4" s="178"/>
     </row>
     <row r="5" spans="1:59" ht="14.1" customHeight="1">
-      <c r="A5" s="177" t="s">
+      <c r="A5" s="164" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="177"/>
-      <c r="C5" s="177"/>
-      <c r="D5" s="178" t="s">
+      <c r="B5" s="164"/>
+      <c r="C5" s="164"/>
+      <c r="D5" s="165" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="179"/>
-      <c r="F5" s="179"/>
-      <c r="G5" s="180"/>
-      <c r="H5" s="176"/>
-      <c r="I5" s="176"/>
-      <c r="J5" s="176"/>
-      <c r="K5" s="176"/>
-      <c r="L5" s="176"/>
-      <c r="M5" s="176"/>
-      <c r="N5" s="176"/>
-      <c r="O5" s="176"/>
-      <c r="P5" s="176"/>
-      <c r="Q5" s="176"/>
-      <c r="R5" s="176"/>
-      <c r="S5" s="176"/>
-      <c r="T5" s="176"/>
-      <c r="U5" s="176"/>
-      <c r="V5" s="176"/>
-      <c r="W5" s="176"/>
-      <c r="X5" s="176"/>
-      <c r="Y5" s="176"/>
-      <c r="Z5" s="176"/>
-      <c r="AA5" s="176"/>
-      <c r="AB5" s="176"/>
-      <c r="AC5" s="176"/>
-      <c r="AD5" s="176"/>
-      <c r="AE5" s="176"/>
-      <c r="AF5" s="176"/>
-      <c r="AG5" s="176"/>
-      <c r="AH5" s="176"/>
-      <c r="AI5" s="176"/>
-      <c r="AJ5" s="176"/>
-      <c r="AK5" s="176"/>
-      <c r="AL5" s="176"/>
-      <c r="AM5" s="176"/>
-      <c r="AN5" s="176"/>
-      <c r="AO5" s="176"/>
-      <c r="AP5" s="176"/>
-      <c r="AQ5" s="176"/>
-      <c r="AR5" s="176"/>
-      <c r="AS5" s="176"/>
-      <c r="AT5" s="176"/>
-      <c r="AU5" s="176"/>
-      <c r="AV5" s="176"/>
-      <c r="AW5" s="176"/>
-      <c r="AX5" s="176"/>
-      <c r="AY5" s="176"/>
-      <c r="AZ5" s="165" t="s">
+      <c r="E5" s="166"/>
+      <c r="F5" s="166"/>
+      <c r="G5" s="167"/>
+      <c r="H5" s="163"/>
+      <c r="I5" s="163"/>
+      <c r="J5" s="163"/>
+      <c r="K5" s="163"/>
+      <c r="L5" s="163"/>
+      <c r="M5" s="163"/>
+      <c r="N5" s="163"/>
+      <c r="O5" s="163"/>
+      <c r="P5" s="163"/>
+      <c r="Q5" s="163"/>
+      <c r="R5" s="163"/>
+      <c r="S5" s="163"/>
+      <c r="T5" s="163"/>
+      <c r="U5" s="163"/>
+      <c r="V5" s="163"/>
+      <c r="W5" s="163"/>
+      <c r="X5" s="163"/>
+      <c r="Y5" s="163"/>
+      <c r="Z5" s="163"/>
+      <c r="AA5" s="163"/>
+      <c r="AB5" s="163"/>
+      <c r="AC5" s="163"/>
+      <c r="AD5" s="163"/>
+      <c r="AE5" s="163"/>
+      <c r="AF5" s="163"/>
+      <c r="AG5" s="163"/>
+      <c r="AH5" s="163"/>
+      <c r="AI5" s="163"/>
+      <c r="AJ5" s="163"/>
+      <c r="AK5" s="163"/>
+      <c r="AL5" s="163"/>
+      <c r="AM5" s="163"/>
+      <c r="AN5" s="163"/>
+      <c r="AO5" s="163"/>
+      <c r="AP5" s="163"/>
+      <c r="AQ5" s="163"/>
+      <c r="AR5" s="163"/>
+      <c r="AS5" s="163"/>
+      <c r="AT5" s="163"/>
+      <c r="AU5" s="163"/>
+      <c r="AV5" s="163"/>
+      <c r="AW5" s="163"/>
+      <c r="AX5" s="163"/>
+      <c r="AY5" s="163"/>
+      <c r="AZ5" s="168" t="s">
         <v>53</v>
       </c>
-      <c r="BA5" s="165"/>
-      <c r="BB5" s="165"/>
-      <c r="BC5" s="162"/>
-      <c r="BD5" s="163"/>
-      <c r="BE5" s="163"/>
-      <c r="BF5" s="163"/>
-      <c r="BG5" s="164"/>
+      <c r="BA5" s="168"/>
+      <c r="BB5" s="168"/>
+      <c r="BC5" s="169"/>
+      <c r="BD5" s="170"/>
+      <c r="BE5" s="170"/>
+      <c r="BF5" s="170"/>
+      <c r="BG5" s="171"/>
     </row>
     <row r="6" spans="1:59" ht="14.1" customHeight="1">
-      <c r="A6" s="177"/>
-      <c r="B6" s="177"/>
-      <c r="C6" s="177"/>
-      <c r="D6" s="178" t="s">
+      <c r="A6" s="164"/>
+      <c r="B6" s="164"/>
+      <c r="C6" s="164"/>
+      <c r="D6" s="165" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="179"/>
-      <c r="F6" s="179"/>
-      <c r="G6" s="180"/>
-      <c r="H6" s="176"/>
-      <c r="I6" s="176"/>
-      <c r="J6" s="176"/>
-      <c r="K6" s="176"/>
-      <c r="L6" s="176"/>
-      <c r="M6" s="176"/>
-      <c r="N6" s="176"/>
-      <c r="O6" s="176"/>
-      <c r="P6" s="176"/>
-      <c r="Q6" s="176"/>
-      <c r="R6" s="176"/>
-      <c r="S6" s="176"/>
-      <c r="T6" s="176"/>
-      <c r="U6" s="176"/>
-      <c r="V6" s="176"/>
-      <c r="W6" s="176"/>
-      <c r="X6" s="176"/>
-      <c r="Y6" s="176"/>
-      <c r="Z6" s="176"/>
-      <c r="AA6" s="176"/>
-      <c r="AB6" s="176"/>
-      <c r="AC6" s="176"/>
-      <c r="AD6" s="176"/>
-      <c r="AE6" s="176"/>
-      <c r="AF6" s="176"/>
-      <c r="AG6" s="176"/>
-      <c r="AH6" s="176"/>
-      <c r="AI6" s="176"/>
-      <c r="AJ6" s="176"/>
-      <c r="AK6" s="176"/>
-      <c r="AL6" s="176"/>
-      <c r="AM6" s="176"/>
-      <c r="AN6" s="176"/>
-      <c r="AO6" s="176"/>
-      <c r="AP6" s="176"/>
-      <c r="AQ6" s="176"/>
-      <c r="AR6" s="176"/>
-      <c r="AS6" s="176"/>
-      <c r="AT6" s="176"/>
-      <c r="AU6" s="176"/>
-      <c r="AV6" s="176"/>
-      <c r="AW6" s="176"/>
-      <c r="AX6" s="176"/>
-      <c r="AY6" s="176"/>
-      <c r="AZ6" s="165" t="s">
+      <c r="E6" s="166"/>
+      <c r="F6" s="166"/>
+      <c r="G6" s="167"/>
+      <c r="H6" s="163"/>
+      <c r="I6" s="163"/>
+      <c r="J6" s="163"/>
+      <c r="K6" s="163"/>
+      <c r="L6" s="163"/>
+      <c r="M6" s="163"/>
+      <c r="N6" s="163"/>
+      <c r="O6" s="163"/>
+      <c r="P6" s="163"/>
+      <c r="Q6" s="163"/>
+      <c r="R6" s="163"/>
+      <c r="S6" s="163"/>
+      <c r="T6" s="163"/>
+      <c r="U6" s="163"/>
+      <c r="V6" s="163"/>
+      <c r="W6" s="163"/>
+      <c r="X6" s="163"/>
+      <c r="Y6" s="163"/>
+      <c r="Z6" s="163"/>
+      <c r="AA6" s="163"/>
+      <c r="AB6" s="163"/>
+      <c r="AC6" s="163"/>
+      <c r="AD6" s="163"/>
+      <c r="AE6" s="163"/>
+      <c r="AF6" s="163"/>
+      <c r="AG6" s="163"/>
+      <c r="AH6" s="163"/>
+      <c r="AI6" s="163"/>
+      <c r="AJ6" s="163"/>
+      <c r="AK6" s="163"/>
+      <c r="AL6" s="163"/>
+      <c r="AM6" s="163"/>
+      <c r="AN6" s="163"/>
+      <c r="AO6" s="163"/>
+      <c r="AP6" s="163"/>
+      <c r="AQ6" s="163"/>
+      <c r="AR6" s="163"/>
+      <c r="AS6" s="163"/>
+      <c r="AT6" s="163"/>
+      <c r="AU6" s="163"/>
+      <c r="AV6" s="163"/>
+      <c r="AW6" s="163"/>
+      <c r="AX6" s="163"/>
+      <c r="AY6" s="163"/>
+      <c r="AZ6" s="168" t="s">
         <v>55</v>
       </c>
-      <c r="BA6" s="165"/>
-      <c r="BB6" s="165"/>
-      <c r="BC6" s="166"/>
-      <c r="BD6" s="167"/>
-      <c r="BE6" s="167"/>
-      <c r="BF6" s="167"/>
-      <c r="BG6" s="168"/>
+      <c r="BA6" s="168"/>
+      <c r="BB6" s="168"/>
+      <c r="BC6" s="172"/>
+      <c r="BD6" s="173"/>
+      <c r="BE6" s="173"/>
+      <c r="BF6" s="173"/>
+      <c r="BG6" s="174"/>
     </row>
     <row r="7" spans="1:59" ht="12.75" customHeight="1">
       <c r="A7" s="7"/>
@@ -10178,28 +10229,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="AZ2:BB2"/>
+    <mergeCell ref="BC2:BG2"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="BC3:BG3"/>
+    <mergeCell ref="AZ4:BB4"/>
+    <mergeCell ref="BC4:BG4"/>
+    <mergeCell ref="AZ5:BB5"/>
+    <mergeCell ref="H5:AY5"/>
+    <mergeCell ref="BC5:BG5"/>
+    <mergeCell ref="AZ6:BB6"/>
+    <mergeCell ref="BC6:BG6"/>
+    <mergeCell ref="H2:AY2"/>
+    <mergeCell ref="H3:AY3"/>
+    <mergeCell ref="H4:AY4"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="D2:G2"/>
     <mergeCell ref="H6:AY6"/>
     <mergeCell ref="A5:C6"/>
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H2:AY2"/>
-    <mergeCell ref="H3:AY3"/>
-    <mergeCell ref="H4:AY4"/>
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="AZ5:BB5"/>
-    <mergeCell ref="H5:AY5"/>
-    <mergeCell ref="BC5:BG5"/>
-    <mergeCell ref="AZ6:BB6"/>
-    <mergeCell ref="BC6:BG6"/>
-    <mergeCell ref="AZ2:BB2"/>
-    <mergeCell ref="BC2:BG2"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="BC3:BG3"/>
-    <mergeCell ref="AZ4:BB4"/>
-    <mergeCell ref="BC4:BG4"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>
@@ -10209,7 +10260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -10274,238 +10325,238 @@
       <c r="AN1" s="55"/>
     </row>
     <row r="2" spans="1:184" ht="14.1" customHeight="1">
-      <c r="A2" s="177" t="s">
+      <c r="A2" s="164" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="177"/>
-      <c r="C2" s="177"/>
-      <c r="D2" s="178" t="s">
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="165" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="178"/>
-      <c r="I2" s="179"/>
-      <c r="J2" s="179"/>
-      <c r="K2" s="179"/>
-      <c r="L2" s="179"/>
-      <c r="M2" s="179"/>
-      <c r="N2" s="179"/>
-      <c r="O2" s="179"/>
-      <c r="P2" s="179"/>
-      <c r="Q2" s="179"/>
-      <c r="R2" s="179"/>
-      <c r="S2" s="179"/>
-      <c r="T2" s="179"/>
-      <c r="U2" s="179"/>
-      <c r="V2" s="179"/>
-      <c r="W2" s="179"/>
-      <c r="X2" s="179"/>
-      <c r="Y2" s="179"/>
-      <c r="Z2" s="179"/>
-      <c r="AA2" s="179"/>
-      <c r="AB2" s="179"/>
-      <c r="AC2" s="179"/>
-      <c r="AD2" s="179"/>
-      <c r="AE2" s="179"/>
-      <c r="AF2" s="179"/>
-      <c r="AG2" s="179"/>
-      <c r="AH2" s="179"/>
-      <c r="AI2" s="165" t="s">
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="166"/>
+      <c r="J2" s="166"/>
+      <c r="K2" s="166"/>
+      <c r="L2" s="166"/>
+      <c r="M2" s="166"/>
+      <c r="N2" s="166"/>
+      <c r="O2" s="166"/>
+      <c r="P2" s="166"/>
+      <c r="Q2" s="166"/>
+      <c r="R2" s="166"/>
+      <c r="S2" s="166"/>
+      <c r="T2" s="166"/>
+      <c r="U2" s="166"/>
+      <c r="V2" s="166"/>
+      <c r="W2" s="166"/>
+      <c r="X2" s="166"/>
+      <c r="Y2" s="166"/>
+      <c r="Z2" s="166"/>
+      <c r="AA2" s="166"/>
+      <c r="AB2" s="166"/>
+      <c r="AC2" s="166"/>
+      <c r="AD2" s="166"/>
+      <c r="AE2" s="166"/>
+      <c r="AF2" s="166"/>
+      <c r="AG2" s="166"/>
+      <c r="AH2" s="166"/>
+      <c r="AI2" s="168" t="s">
         <v>47</v>
       </c>
-      <c r="AJ2" s="165"/>
-      <c r="AK2" s="165"/>
-      <c r="AL2" s="167"/>
-      <c r="AM2" s="167"/>
-      <c r="AN2" s="168"/>
+      <c r="AJ2" s="168"/>
+      <c r="AK2" s="168"/>
+      <c r="AL2" s="173"/>
+      <c r="AM2" s="173"/>
+      <c r="AN2" s="174"/>
     </row>
     <row r="3" spans="1:184" ht="14.1" customHeight="1">
-      <c r="A3" s="177"/>
-      <c r="B3" s="177"/>
-      <c r="C3" s="177"/>
-      <c r="D3" s="178" t="s">
+      <c r="A3" s="164"/>
+      <c r="B3" s="164"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="165" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="179"/>
-      <c r="F3" s="179"/>
-      <c r="G3" s="180"/>
-      <c r="H3" s="178"/>
-      <c r="I3" s="179"/>
-      <c r="J3" s="179"/>
-      <c r="K3" s="179"/>
-      <c r="L3" s="179"/>
-      <c r="M3" s="179"/>
-      <c r="N3" s="179"/>
-      <c r="O3" s="179"/>
-      <c r="P3" s="179"/>
-      <c r="Q3" s="179"/>
-      <c r="R3" s="179"/>
-      <c r="S3" s="179"/>
-      <c r="T3" s="179"/>
-      <c r="U3" s="179"/>
-      <c r="V3" s="179"/>
-      <c r="W3" s="179"/>
-      <c r="X3" s="179"/>
-      <c r="Y3" s="179"/>
-      <c r="Z3" s="179"/>
-      <c r="AA3" s="179"/>
-      <c r="AB3" s="179"/>
-      <c r="AC3" s="179"/>
-      <c r="AD3" s="179"/>
-      <c r="AE3" s="179"/>
-      <c r="AF3" s="179"/>
-      <c r="AG3" s="179"/>
-      <c r="AH3" s="179"/>
-      <c r="AI3" s="165" t="s">
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
+      <c r="L3" s="166"/>
+      <c r="M3" s="166"/>
+      <c r="N3" s="166"/>
+      <c r="O3" s="166"/>
+      <c r="P3" s="166"/>
+      <c r="Q3" s="166"/>
+      <c r="R3" s="166"/>
+      <c r="S3" s="166"/>
+      <c r="T3" s="166"/>
+      <c r="U3" s="166"/>
+      <c r="V3" s="166"/>
+      <c r="W3" s="166"/>
+      <c r="X3" s="166"/>
+      <c r="Y3" s="166"/>
+      <c r="Z3" s="166"/>
+      <c r="AA3" s="166"/>
+      <c r="AB3" s="166"/>
+      <c r="AC3" s="166"/>
+      <c r="AD3" s="166"/>
+      <c r="AE3" s="166"/>
+      <c r="AF3" s="166"/>
+      <c r="AG3" s="166"/>
+      <c r="AH3" s="166"/>
+      <c r="AI3" s="168" t="s">
         <v>49</v>
       </c>
-      <c r="AJ3" s="165"/>
-      <c r="AK3" s="165"/>
-      <c r="AL3" s="181"/>
-      <c r="AM3" s="167"/>
-      <c r="AN3" s="168"/>
+      <c r="AJ3" s="168"/>
+      <c r="AK3" s="168"/>
+      <c r="AL3" s="182"/>
+      <c r="AM3" s="173"/>
+      <c r="AN3" s="174"/>
     </row>
     <row r="4" spans="1:184" ht="14.1" customHeight="1">
-      <c r="A4" s="177"/>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="178" t="s">
+      <c r="A4" s="164"/>
+      <c r="B4" s="164"/>
+      <c r="C4" s="164"/>
+      <c r="D4" s="165" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="179"/>
-      <c r="F4" s="179"/>
-      <c r="G4" s="180"/>
-      <c r="H4" s="178"/>
-      <c r="I4" s="179"/>
-      <c r="J4" s="179"/>
-      <c r="K4" s="179"/>
-      <c r="L4" s="179"/>
-      <c r="M4" s="179"/>
-      <c r="N4" s="179"/>
-      <c r="O4" s="179"/>
-      <c r="P4" s="179"/>
-      <c r="Q4" s="179"/>
-      <c r="R4" s="179"/>
-      <c r="S4" s="179"/>
-      <c r="T4" s="179"/>
-      <c r="U4" s="179"/>
-      <c r="V4" s="179"/>
-      <c r="W4" s="179"/>
-      <c r="X4" s="179"/>
-      <c r="Y4" s="179"/>
-      <c r="Z4" s="179"/>
-      <c r="AA4" s="179"/>
-      <c r="AB4" s="179"/>
-      <c r="AC4" s="179"/>
-      <c r="AD4" s="179"/>
-      <c r="AE4" s="179"/>
-      <c r="AF4" s="179"/>
-      <c r="AG4" s="179"/>
-      <c r="AH4" s="179"/>
-      <c r="AI4" s="165" t="s">
+      <c r="E4" s="166"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="165"/>
+      <c r="I4" s="166"/>
+      <c r="J4" s="166"/>
+      <c r="K4" s="166"/>
+      <c r="L4" s="166"/>
+      <c r="M4" s="166"/>
+      <c r="N4" s="166"/>
+      <c r="O4" s="166"/>
+      <c r="P4" s="166"/>
+      <c r="Q4" s="166"/>
+      <c r="R4" s="166"/>
+      <c r="S4" s="166"/>
+      <c r="T4" s="166"/>
+      <c r="U4" s="166"/>
+      <c r="V4" s="166"/>
+      <c r="W4" s="166"/>
+      <c r="X4" s="166"/>
+      <c r="Y4" s="166"/>
+      <c r="Z4" s="166"/>
+      <c r="AA4" s="166"/>
+      <c r="AB4" s="166"/>
+      <c r="AC4" s="166"/>
+      <c r="AD4" s="166"/>
+      <c r="AE4" s="166"/>
+      <c r="AF4" s="166"/>
+      <c r="AG4" s="166"/>
+      <c r="AH4" s="166"/>
+      <c r="AI4" s="168" t="s">
         <v>51</v>
       </c>
-      <c r="AJ4" s="165"/>
-      <c r="AK4" s="165"/>
-      <c r="AL4" s="167"/>
-      <c r="AM4" s="167"/>
-      <c r="AN4" s="168"/>
+      <c r="AJ4" s="168"/>
+      <c r="AK4" s="168"/>
+      <c r="AL4" s="173"/>
+      <c r="AM4" s="173"/>
+      <c r="AN4" s="174"/>
     </row>
     <row r="5" spans="1:184" ht="14.1" customHeight="1">
-      <c r="A5" s="177" t="s">
+      <c r="A5" s="164" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="177"/>
-      <c r="C5" s="177"/>
-      <c r="D5" s="178" t="s">
+      <c r="B5" s="164"/>
+      <c r="C5" s="164"/>
+      <c r="D5" s="165" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="179"/>
-      <c r="F5" s="179"/>
-      <c r="G5" s="180"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="179"/>
-      <c r="J5" s="179"/>
-      <c r="K5" s="179"/>
-      <c r="L5" s="179"/>
-      <c r="M5" s="179"/>
-      <c r="N5" s="179"/>
-      <c r="O5" s="179"/>
-      <c r="P5" s="179"/>
-      <c r="Q5" s="179"/>
-      <c r="R5" s="179"/>
-      <c r="S5" s="179"/>
-      <c r="T5" s="179"/>
-      <c r="U5" s="179"/>
-      <c r="V5" s="179"/>
-      <c r="W5" s="179"/>
-      <c r="X5" s="179"/>
-      <c r="Y5" s="179"/>
-      <c r="Z5" s="179"/>
-      <c r="AA5" s="179"/>
-      <c r="AB5" s="179"/>
-      <c r="AC5" s="179"/>
-      <c r="AD5" s="179"/>
-      <c r="AE5" s="179"/>
-      <c r="AF5" s="179"/>
-      <c r="AG5" s="179"/>
-      <c r="AH5" s="179"/>
-      <c r="AI5" s="165" t="s">
+      <c r="E5" s="166"/>
+      <c r="F5" s="166"/>
+      <c r="G5" s="167"/>
+      <c r="H5" s="165"/>
+      <c r="I5" s="166"/>
+      <c r="J5" s="166"/>
+      <c r="K5" s="166"/>
+      <c r="L5" s="166"/>
+      <c r="M5" s="166"/>
+      <c r="N5" s="166"/>
+      <c r="O5" s="166"/>
+      <c r="P5" s="166"/>
+      <c r="Q5" s="166"/>
+      <c r="R5" s="166"/>
+      <c r="S5" s="166"/>
+      <c r="T5" s="166"/>
+      <c r="U5" s="166"/>
+      <c r="V5" s="166"/>
+      <c r="W5" s="166"/>
+      <c r="X5" s="166"/>
+      <c r="Y5" s="166"/>
+      <c r="Z5" s="166"/>
+      <c r="AA5" s="166"/>
+      <c r="AB5" s="166"/>
+      <c r="AC5" s="166"/>
+      <c r="AD5" s="166"/>
+      <c r="AE5" s="166"/>
+      <c r="AF5" s="166"/>
+      <c r="AG5" s="166"/>
+      <c r="AH5" s="166"/>
+      <c r="AI5" s="168" t="s">
         <v>53</v>
       </c>
-      <c r="AJ5" s="165"/>
-      <c r="AK5" s="165"/>
-      <c r="AL5" s="167"/>
-      <c r="AM5" s="167"/>
-      <c r="AN5" s="168"/>
+      <c r="AJ5" s="168"/>
+      <c r="AK5" s="168"/>
+      <c r="AL5" s="173"/>
+      <c r="AM5" s="173"/>
+      <c r="AN5" s="174"/>
     </row>
     <row r="6" spans="1:184" ht="14.1" customHeight="1">
-      <c r="A6" s="177"/>
-      <c r="B6" s="177"/>
-      <c r="C6" s="177"/>
-      <c r="D6" s="178" t="s">
+      <c r="A6" s="164"/>
+      <c r="B6" s="164"/>
+      <c r="C6" s="164"/>
+      <c r="D6" s="165" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="179"/>
-      <c r="F6" s="179"/>
-      <c r="G6" s="180"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="179"/>
-      <c r="J6" s="179"/>
-      <c r="K6" s="179"/>
-      <c r="L6" s="179"/>
-      <c r="M6" s="179"/>
-      <c r="N6" s="179"/>
-      <c r="O6" s="179"/>
-      <c r="P6" s="179"/>
-      <c r="Q6" s="179"/>
-      <c r="R6" s="179"/>
-      <c r="S6" s="179"/>
-      <c r="T6" s="179"/>
-      <c r="U6" s="179"/>
-      <c r="V6" s="179"/>
-      <c r="W6" s="179"/>
-      <c r="X6" s="179"/>
-      <c r="Y6" s="179"/>
-      <c r="Z6" s="179"/>
-      <c r="AA6" s="179"/>
-      <c r="AB6" s="179"/>
-      <c r="AC6" s="179"/>
-      <c r="AD6" s="179"/>
-      <c r="AE6" s="179"/>
-      <c r="AF6" s="179"/>
-      <c r="AG6" s="179"/>
-      <c r="AH6" s="179"/>
-      <c r="AI6" s="165" t="s">
+      <c r="E6" s="166"/>
+      <c r="F6" s="166"/>
+      <c r="G6" s="167"/>
+      <c r="H6" s="165"/>
+      <c r="I6" s="166"/>
+      <c r="J6" s="166"/>
+      <c r="K6" s="166"/>
+      <c r="L6" s="166"/>
+      <c r="M6" s="166"/>
+      <c r="N6" s="166"/>
+      <c r="O6" s="166"/>
+      <c r="P6" s="166"/>
+      <c r="Q6" s="166"/>
+      <c r="R6" s="166"/>
+      <c r="S6" s="166"/>
+      <c r="T6" s="166"/>
+      <c r="U6" s="166"/>
+      <c r="V6" s="166"/>
+      <c r="W6" s="166"/>
+      <c r="X6" s="166"/>
+      <c r="Y6" s="166"/>
+      <c r="Z6" s="166"/>
+      <c r="AA6" s="166"/>
+      <c r="AB6" s="166"/>
+      <c r="AC6" s="166"/>
+      <c r="AD6" s="166"/>
+      <c r="AE6" s="166"/>
+      <c r="AF6" s="166"/>
+      <c r="AG6" s="166"/>
+      <c r="AH6" s="166"/>
+      <c r="AI6" s="168" t="s">
         <v>55</v>
       </c>
-      <c r="AJ6" s="165"/>
-      <c r="AK6" s="165"/>
-      <c r="AL6" s="167"/>
-      <c r="AM6" s="167"/>
-      <c r="AN6" s="168"/>
+      <c r="AJ6" s="168"/>
+      <c r="AK6" s="168"/>
+      <c r="AL6" s="173"/>
+      <c r="AM6" s="173"/>
+      <c r="AN6" s="174"/>
     </row>
     <row r="7" spans="1:184" s="50" customFormat="1" ht="12.75" customHeight="1">
       <c r="A7" s="37"/>
@@ -13089,18 +13140,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="AL2:AN2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="AL4:AN4"/>
-    <mergeCell ref="AL3:AN3"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="AL5:AN5"/>
-    <mergeCell ref="AL6:AN6"/>
-    <mergeCell ref="H4:AH4"/>
-    <mergeCell ref="AI4:AK4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="H5:AH5"/>
-    <mergeCell ref="AI5:AK5"/>
     <mergeCell ref="A2:C4"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="H2:AH2"/>
@@ -13111,6 +13150,18 @@
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="H6:AH6"/>
     <mergeCell ref="AI6:AK6"/>
+    <mergeCell ref="AL5:AN5"/>
+    <mergeCell ref="AL6:AN6"/>
+    <mergeCell ref="H4:AH4"/>
+    <mergeCell ref="AI4:AK4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:AH5"/>
+    <mergeCell ref="AI5:AK5"/>
+    <mergeCell ref="AL2:AN2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="AL4:AN4"/>
+    <mergeCell ref="AL3:AN3"/>
+    <mergeCell ref="D4:G4"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>
